--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{40F71CBE-A6DA-462F-AFBC-81C3A1C71A09}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D2B35-CAEE-4A79-8D45-C4BE9942F688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="12960" yWindow="255" windowWidth="12405" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2040" yWindow="1785" windowWidth="21600" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13010" uniqueCount="8597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13054" uniqueCount="8597">
   <si>
     <t>tickers</t>
   </si>
@@ -56401,8 +56401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A334" workbookViewId="0">
-      <selection activeCell="H305" sqref="H305:H343"/>
+    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
+      <selection activeCell="H345" sqref="H345:H388"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -64680,6 +64680,13 @@
       <c r="F346" t="s">
         <v>7576</v>
       </c>
+      <c r="G346" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H346" t="str">
+        <f t="shared" ref="H346:H363" si="16">_xlfn.CONCAT(F346,G346)</f>
+        <v>fad_history.csv</v>
+      </c>
     </row>
     <row r="347" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A347" t="s">
@@ -64697,6 +64704,13 @@
       <c r="F347" t="s">
         <v>7577</v>
       </c>
+      <c r="G347" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H347" t="str">
+        <f t="shared" si="16"/>
+        <v>fam_history.csv</v>
+      </c>
     </row>
     <row r="348" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A348" t="s">
@@ -64714,6 +64728,13 @@
       <c r="F348" t="s">
         <v>7578</v>
       </c>
+      <c r="G348" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H348" t="str">
+        <f t="shared" si="16"/>
+        <v>fan_history.csv</v>
+      </c>
     </row>
     <row r="349" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A349" t="s">
@@ -64731,6 +64752,13 @@
       <c r="F349" t="s">
         <v>7579</v>
       </c>
+      <c r="G349" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H349" t="str">
+        <f t="shared" si="16"/>
+        <v>fas_history.csv</v>
+      </c>
     </row>
     <row r="350" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A350" t="s">
@@ -64748,6 +64776,13 @@
       <c r="F350" t="s">
         <v>7580</v>
       </c>
+      <c r="G350" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H350" t="str">
+        <f t="shared" si="16"/>
+        <v>faus_history.csv</v>
+      </c>
     </row>
     <row r="351" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A351" t="s">
@@ -64765,6 +64800,13 @@
       <c r="F351" t="s">
         <v>7581</v>
       </c>
+      <c r="G351" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H351" t="str">
+        <f t="shared" si="16"/>
+        <v>faz_history.csv</v>
+      </c>
     </row>
     <row r="352" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A352" t="s">
@@ -64782,8 +64824,15 @@
       <c r="F352" t="s">
         <v>7582</v>
       </c>
-    </row>
-    <row r="353" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G352" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H352" t="str">
+        <f t="shared" si="16"/>
+        <v>fbgx_history.csv</v>
+      </c>
+    </row>
+    <row r="353" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A353" t="s">
         <v>6237</v>
       </c>
@@ -64799,8 +64848,15 @@
       <c r="F353" t="s">
         <v>7583</v>
       </c>
-    </row>
-    <row r="354" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G353" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H353" t="str">
+        <f t="shared" si="16"/>
+        <v>fbnd_history.csv</v>
+      </c>
+    </row>
+    <row r="354" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A354" t="s">
         <v>6238</v>
       </c>
@@ -64816,8 +64872,15 @@
       <c r="F354" t="s">
         <v>7584</v>
       </c>
-    </row>
-    <row r="355" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G354" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H354" t="str">
+        <f t="shared" si="16"/>
+        <v>fbt_history.csv</v>
+      </c>
+    </row>
+    <row r="355" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A355" t="s">
         <v>6239</v>
       </c>
@@ -64833,8 +64896,15 @@
       <c r="F355" t="s">
         <v>7585</v>
       </c>
-    </row>
-    <row r="356" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G355" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H355" t="str">
+        <f t="shared" si="16"/>
+        <v>fbz_history.csv</v>
+      </c>
+    </row>
+    <row r="356" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A356" t="s">
         <v>6240</v>
       </c>
@@ -64850,8 +64920,15 @@
       <c r="F356" t="s">
         <v>7586</v>
       </c>
-    </row>
-    <row r="357" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G356" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H356" t="str">
+        <f t="shared" si="16"/>
+        <v>fca_history.csv</v>
+      </c>
+    </row>
+    <row r="357" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A357" t="s">
         <v>6241</v>
       </c>
@@ -64867,8 +64944,15 @@
       <c r="F357" t="s">
         <v>7587</v>
       </c>
-    </row>
-    <row r="358" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G357" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H357" t="str">
+        <f t="shared" si="16"/>
+        <v>fcan_history.csv</v>
+      </c>
+    </row>
+    <row r="358" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A358" t="s">
         <v>6242</v>
       </c>
@@ -64884,8 +64968,15 @@
       <c r="F358" t="s">
         <v>7588</v>
       </c>
-    </row>
-    <row r="359" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G358" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H358" t="str">
+        <f t="shared" si="16"/>
+        <v>fcg_history.csv</v>
+      </c>
+    </row>
+    <row r="359" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A359" t="s">
         <v>6243</v>
       </c>
@@ -64901,8 +64992,15 @@
       <c r="F359" t="s">
         <v>7589</v>
       </c>
-    </row>
-    <row r="360" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G359" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H359" t="str">
+        <f t="shared" si="16"/>
+        <v>fcom_history.csv</v>
+      </c>
+    </row>
+    <row r="360" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A360" t="s">
         <v>6244</v>
       </c>
@@ -64918,8 +65016,15 @@
       <c r="F360" t="s">
         <v>7590</v>
       </c>
-    </row>
-    <row r="361" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G360" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H360" t="str">
+        <f t="shared" si="16"/>
+        <v>fcor_history.csv</v>
+      </c>
+    </row>
+    <row r="361" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A361" t="s">
         <v>6245</v>
       </c>
@@ -64935,8 +65040,15 @@
       <c r="F361" t="s">
         <v>7591</v>
       </c>
-    </row>
-    <row r="362" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G361" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H361" t="str">
+        <f t="shared" si="16"/>
+        <v>fct_history.csv</v>
+      </c>
+    </row>
+    <row r="362" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A362" t="s">
         <v>6246</v>
       </c>
@@ -64952,8 +65064,15 @@
       <c r="F362" t="s">
         <v>7592</v>
       </c>
-    </row>
-    <row r="363" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G362" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H362" t="str">
+        <f t="shared" si="16"/>
+        <v>fdd_history.csv</v>
+      </c>
+    </row>
+    <row r="363" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A363" t="s">
         <v>6247</v>
       </c>
@@ -64969,8 +65088,15 @@
       <c r="F363" t="s">
         <v>7593</v>
       </c>
-    </row>
-    <row r="364" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G363" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H363" t="str">
+        <f t="shared" si="16"/>
+        <v>fdis_history.csv</v>
+      </c>
+    </row>
+    <row r="364" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A364" t="s">
         <v>6248</v>
       </c>
@@ -64986,8 +65112,15 @@
       <c r="F364" t="s">
         <v>7594</v>
       </c>
-    </row>
-    <row r="365" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G364" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H364" t="str">
+        <f t="shared" ref="H364:H366" si="17">_xlfn.CONCAT(F364,G364)</f>
+        <v>fdiv_history.csv</v>
+      </c>
+    </row>
+    <row r="365" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A365" t="s">
         <v>6249</v>
       </c>
@@ -65003,8 +65136,15 @@
       <c r="F365" t="s">
         <v>7595</v>
       </c>
-    </row>
-    <row r="366" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G365" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H365" t="str">
+        <f t="shared" si="17"/>
+        <v>fdl_history.csv</v>
+      </c>
+    </row>
+    <row r="366" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A366" t="s">
         <v>6250</v>
       </c>
@@ -65020,8 +65160,15 @@
       <c r="F366" t="s">
         <v>7596</v>
       </c>
-    </row>
-    <row r="367" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G366" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H366" t="str">
+        <f t="shared" si="17"/>
+        <v>fdm_history.csv</v>
+      </c>
+    </row>
+    <row r="367" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A367" t="s">
         <v>6251</v>
       </c>
@@ -65037,8 +65184,15 @@
       <c r="F367" t="s">
         <v>7597</v>
       </c>
-    </row>
-    <row r="368" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G367" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H367" t="str">
+        <f t="shared" ref="H367:H383" si="18">_xlfn.CONCAT(F367,G367)</f>
+        <v>fdn_history.csv</v>
+      </c>
+    </row>
+    <row r="368" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A368" t="s">
         <v>6252</v>
       </c>
@@ -65054,8 +65208,15 @@
       <c r="F368" t="s">
         <v>7598</v>
       </c>
-    </row>
-    <row r="369" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G368" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H368" t="str">
+        <f t="shared" si="18"/>
+        <v>fdt_history.csv</v>
+      </c>
+    </row>
+    <row r="369" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A369" t="s">
         <v>6253</v>
       </c>
@@ -65071,8 +65232,15 @@
       <c r="F369" t="s">
         <v>7599</v>
       </c>
-    </row>
-    <row r="370" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G369" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H369" t="str">
+        <f t="shared" si="18"/>
+        <v>fdts_history.csv</v>
+      </c>
+    </row>
+    <row r="370" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A370" t="s">
         <v>6254</v>
       </c>
@@ -65088,8 +65256,15 @@
       <c r="F370" t="s">
         <v>7600</v>
       </c>
-    </row>
-    <row r="371" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G370" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H370" t="str">
+        <f t="shared" si="18"/>
+        <v>feeu_history.csv</v>
+      </c>
+    </row>
+    <row r="371" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A371" t="s">
         <v>6255</v>
       </c>
@@ -65105,8 +65280,15 @@
       <c r="F371" t="s">
         <v>7601</v>
       </c>
-    </row>
-    <row r="372" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G371" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H371" t="str">
+        <f t="shared" si="18"/>
+        <v>fei_history.csv</v>
+      </c>
+    </row>
+    <row r="372" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A372" t="s">
         <v>6256</v>
       </c>
@@ -65122,8 +65304,15 @@
       <c r="F372" t="s">
         <v>7602</v>
       </c>
-    </row>
-    <row r="373" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G372" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H372" t="str">
+        <f t="shared" si="18"/>
+        <v>fem_history.csv</v>
+      </c>
+    </row>
+    <row r="373" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A373" t="s">
         <v>6257</v>
       </c>
@@ -65139,8 +65328,15 @@
       <c r="F373" t="s">
         <v>7603</v>
       </c>
-    </row>
-    <row r="374" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G373" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H373" t="str">
+        <f t="shared" si="18"/>
+        <v>femb_history.csv</v>
+      </c>
+    </row>
+    <row r="374" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A374" t="s">
         <v>6258</v>
       </c>
@@ -65156,8 +65352,15 @@
       <c r="F374" t="s">
         <v>7604</v>
       </c>
-    </row>
-    <row r="375" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G374" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H374" t="str">
+        <f t="shared" si="18"/>
+        <v>fems_history.csv</v>
+      </c>
+    </row>
+    <row r="375" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A375" t="s">
         <v>6259</v>
       </c>
@@ -65173,8 +65376,15 @@
       <c r="F375" t="s">
         <v>7605</v>
       </c>
-    </row>
-    <row r="376" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G375" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H375" t="str">
+        <f t="shared" si="18"/>
+        <v>feny_history.csv</v>
+      </c>
+    </row>
+    <row r="376" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A376" t="s">
         <v>6260</v>
       </c>
@@ -65190,8 +65400,15 @@
       <c r="F376" t="s">
         <v>7606</v>
       </c>
-    </row>
-    <row r="377" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G376" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H376" t="str">
+        <f t="shared" si="18"/>
+        <v>feo_history.csv</v>
+      </c>
+    </row>
+    <row r="377" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A377" t="s">
         <v>6261</v>
       </c>
@@ -65207,8 +65424,15 @@
       <c r="F377" t="s">
         <v>7607</v>
       </c>
-    </row>
-    <row r="378" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G377" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H377" t="str">
+        <f t="shared" si="18"/>
+        <v>fep_history.csv</v>
+      </c>
+    </row>
+    <row r="378" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A378" t="s">
         <v>6262</v>
       </c>
@@ -65224,8 +65448,15 @@
       <c r="F378" t="s">
         <v>7608</v>
       </c>
-    </row>
-    <row r="379" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G378" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H378" t="str">
+        <f t="shared" si="18"/>
+        <v>feu_history.csv</v>
+      </c>
+    </row>
+    <row r="379" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A379" t="s">
         <v>6263</v>
       </c>
@@ -65241,8 +65472,15 @@
       <c r="F379" t="s">
         <v>7609</v>
       </c>
-    </row>
-    <row r="380" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G379" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H379" t="str">
+        <f t="shared" si="18"/>
+        <v>feuz_history.csv</v>
+      </c>
+    </row>
+    <row r="380" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A380" t="s">
         <v>6264</v>
       </c>
@@ -65258,8 +65496,15 @@
       <c r="F380" t="s">
         <v>7610</v>
       </c>
-    </row>
-    <row r="381" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G380" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H380" t="str">
+        <f t="shared" si="18"/>
+        <v>fex_history.csv</v>
+      </c>
+    </row>
+    <row r="381" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A381" t="s">
         <v>6265</v>
       </c>
@@ -65275,8 +65520,15 @@
       <c r="F381" t="s">
         <v>7611</v>
       </c>
-    </row>
-    <row r="382" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G381" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H381" t="str">
+        <f t="shared" si="18"/>
+        <v>fez_history.csv</v>
+      </c>
+    </row>
+    <row r="382" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A382" t="s">
         <v>6266</v>
       </c>
@@ -65292,8 +65544,15 @@
       <c r="F382" t="s">
         <v>7612</v>
       </c>
-    </row>
-    <row r="383" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G382" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H382" t="str">
+        <f t="shared" si="18"/>
+        <v>ffa_history.csv</v>
+      </c>
+    </row>
+    <row r="383" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A383" t="s">
         <v>6267</v>
       </c>
@@ -65309,8 +65568,15 @@
       <c r="F383" t="s">
         <v>7613</v>
       </c>
-    </row>
-    <row r="384" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G383" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H383" t="str">
+        <f t="shared" si="18"/>
+        <v>ffr_history.csv</v>
+      </c>
+    </row>
+    <row r="384" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A384" t="s">
         <v>6268</v>
       </c>
@@ -65326,8 +65592,15 @@
       <c r="F384" t="s">
         <v>7614</v>
       </c>
-    </row>
-    <row r="385" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G384" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H384" t="str">
+        <f t="shared" ref="H384:H390" si="19">_xlfn.CONCAT(F384,G384)</f>
+        <v>fgb_history.csv</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A385" t="s">
         <v>6269</v>
       </c>
@@ -65343,8 +65616,15 @@
       <c r="F385" t="s">
         <v>7615</v>
       </c>
-    </row>
-    <row r="386" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G385" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H385" t="str">
+        <f t="shared" si="19"/>
+        <v>fgd_history.csv</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A386" t="s">
         <v>6270</v>
       </c>
@@ -65360,8 +65640,15 @@
       <c r="F386" t="s">
         <v>7616</v>
       </c>
-    </row>
-    <row r="387" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G386" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H386" t="str">
+        <f t="shared" si="19"/>
+        <v>fgm_history.csv</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A387" t="s">
         <v>6271</v>
       </c>
@@ -65377,8 +65664,15 @@
       <c r="F387" t="s">
         <v>7617</v>
       </c>
-    </row>
-    <row r="388" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G387" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H387" t="str">
+        <f t="shared" si="19"/>
+        <v>fhk_history.csv</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A388" t="s">
         <v>6272</v>
       </c>
@@ -65391,11 +65685,18 @@
       <c r="D388" t="s">
         <v>7232</v>
       </c>
-      <c r="F388" t="s">
+      <c r="F388" s="2" t="s">
         <v>7618</v>
       </c>
-    </row>
-    <row r="389" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G388" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H388" s="2" t="str">
+        <f t="shared" si="19"/>
+        <v>fhlc_history.csv</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A389" t="s">
         <v>6273</v>
       </c>
@@ -65412,7 +65713,7 @@
         <v>7619</v>
       </c>
     </row>
-    <row r="390" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A390" t="s">
         <v>6274</v>
       </c>
@@ -65428,8 +65729,15 @@
       <c r="F390" t="s">
         <v>7620</v>
       </c>
-    </row>
-    <row r="391" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G390" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H390" t="str">
+        <f t="shared" si="19"/>
+        <v>fidu_history.csv</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A391" t="s">
         <v>6275</v>
       </c>
@@ -65446,7 +65754,7 @@
         <v>7621</v>
       </c>
     </row>
-    <row r="392" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
         <v>6276</v>
       </c>
@@ -65463,7 +65771,7 @@
         <v>7622</v>
       </c>
     </row>
-    <row r="393" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
         <v>6277</v>
       </c>
@@ -65480,7 +65788,7 @@
         <v>7623</v>
       </c>
     </row>
-    <row r="394" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
         <v>6278</v>
       </c>
@@ -65497,7 +65805,7 @@
         <v>7624</v>
       </c>
     </row>
-    <row r="395" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
         <v>6279</v>
       </c>
@@ -65514,7 +65822,7 @@
         <v>7625</v>
       </c>
     </row>
-    <row r="396" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
         <v>6280</v>
       </c>
@@ -65531,7 +65839,7 @@
         <v>7626</v>
       </c>
     </row>
-    <row r="397" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
         <v>6281</v>
       </c>
@@ -65548,7 +65856,7 @@
         <v>7627</v>
       </c>
     </row>
-    <row r="398" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
         <v>6282</v>
       </c>
@@ -65565,7 +65873,7 @@
         <v>7628</v>
       </c>
     </row>
-    <row r="399" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
         <v>6283</v>
       </c>
@@ -65582,7 +65890,7 @@
         <v>7629</v>
       </c>
     </row>
-    <row r="400" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
         <v>6284</v>
       </c>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{977D2B35-CAEE-4A79-8D45-C4BE9942F688}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13935A-FDB2-43E5-A643-73A14E9A92EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2040" yWindow="1785" windowWidth="21600" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="8955" yWindow="1320" windowWidth="21600" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13054" uniqueCount="8597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13104" uniqueCount="8597">
   <si>
     <t>tickers</t>
   </si>
@@ -56401,8 +56401,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A352" workbookViewId="0">
-      <selection activeCell="H345" sqref="H345:H388"/>
+    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
+      <selection activeCell="H439" sqref="H390:H439"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -65753,6 +65753,13 @@
       <c r="F391" t="s">
         <v>7621</v>
       </c>
+      <c r="G391" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H391" t="str">
+        <f t="shared" ref="H391:H415" si="20">_xlfn.CONCAT(F391,G391)</f>
+        <v>fieg_history.csv</v>
+      </c>
     </row>
     <row r="392" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A392" t="s">
@@ -65770,6 +65777,13 @@
       <c r="F392" t="s">
         <v>7622</v>
       </c>
+      <c r="G392" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H392" t="str">
+        <f t="shared" si="20"/>
+        <v>fieu_history.csv</v>
+      </c>
     </row>
     <row r="393" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A393" t="s">
@@ -65787,6 +65801,13 @@
       <c r="F393" t="s">
         <v>7623</v>
       </c>
+      <c r="G393" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H393" t="str">
+        <f t="shared" si="20"/>
+        <v>fif_history.csv</v>
+      </c>
     </row>
     <row r="394" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A394" t="s">
@@ -65804,6 +65825,13 @@
       <c r="F394" t="s">
         <v>7624</v>
       </c>
+      <c r="G394" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H394" t="str">
+        <f t="shared" si="20"/>
+        <v>figy_history.csv</v>
+      </c>
     </row>
     <row r="395" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A395" t="s">
@@ -65821,6 +65849,13 @@
       <c r="F395" t="s">
         <v>7625</v>
       </c>
+      <c r="G395" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H395" t="str">
+        <f t="shared" si="20"/>
+        <v>fill_history.csv</v>
+      </c>
     </row>
     <row r="396" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A396" t="s">
@@ -65838,6 +65873,13 @@
       <c r="F396" t="s">
         <v>7626</v>
       </c>
+      <c r="G396" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H396" t="str">
+        <f t="shared" si="20"/>
+        <v>finu_history.csv</v>
+      </c>
     </row>
     <row r="397" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A397" t="s">
@@ -65855,6 +65897,13 @@
       <c r="F397" t="s">
         <v>7627</v>
       </c>
+      <c r="G397" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H397" t="str">
+        <f t="shared" si="20"/>
+        <v>finz_history.csv</v>
+      </c>
     </row>
     <row r="398" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A398" t="s">
@@ -65872,6 +65921,13 @@
       <c r="F398" t="s">
         <v>7628</v>
       </c>
+      <c r="G398" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H398" t="str">
+        <f t="shared" si="20"/>
+        <v>fiw_history.csv</v>
+      </c>
     </row>
     <row r="399" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A399" t="s">
@@ -65889,6 +65945,13 @@
       <c r="F399" t="s">
         <v>7629</v>
       </c>
+      <c r="G399" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H399" t="str">
+        <f t="shared" si="20"/>
+        <v>fjp_history.csv</v>
+      </c>
     </row>
     <row r="400" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A400" t="s">
@@ -65906,8 +65969,15 @@
       <c r="F400" t="s">
         <v>7630</v>
       </c>
-    </row>
-    <row r="401" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G400" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H400" t="str">
+        <f t="shared" si="20"/>
+        <v>fko_history.csv</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A401" t="s">
         <v>6285</v>
       </c>
@@ -65923,8 +65993,15 @@
       <c r="F401" t="s">
         <v>7631</v>
       </c>
-    </row>
-    <row r="402" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G401" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H401" t="str">
+        <f t="shared" si="20"/>
+        <v>fku_history.csv</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A402" t="s">
         <v>6286</v>
       </c>
@@ -65940,8 +66017,15 @@
       <c r="F402" t="s">
         <v>7632</v>
       </c>
-    </row>
-    <row r="403" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G402" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H402" t="str">
+        <f t="shared" si="20"/>
+        <v>flag_history.csv</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A403" t="s">
         <v>6287</v>
       </c>
@@ -65957,8 +66041,15 @@
       <c r="F403" t="s">
         <v>7633</v>
       </c>
-    </row>
-    <row r="404" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G403" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H403" t="str">
+        <f t="shared" si="20"/>
+        <v>flge_history.csv</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A404" t="s">
         <v>6288</v>
       </c>
@@ -65974,8 +66065,15 @@
       <c r="F404" t="s">
         <v>7634</v>
       </c>
-    </row>
-    <row r="405" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G404" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H404" t="str">
+        <f t="shared" si="20"/>
+        <v>flm_history.csv</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A405" t="s">
         <v>6289</v>
       </c>
@@ -65991,8 +66089,15 @@
       <c r="F405" t="s">
         <v>7635</v>
       </c>
-    </row>
-    <row r="406" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G405" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H405" t="str">
+        <f t="shared" si="20"/>
+        <v>fln_history.csv</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A406" t="s">
         <v>6290</v>
       </c>
@@ -66008,8 +66113,15 @@
       <c r="F406" t="s">
         <v>7636</v>
       </c>
-    </row>
-    <row r="407" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G406" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H406" t="str">
+        <f t="shared" si="20"/>
+        <v>flot_history.csv</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A407" t="s">
         <v>6291</v>
       </c>
@@ -66025,8 +66137,15 @@
       <c r="F407" t="s">
         <v>7637</v>
       </c>
-    </row>
-    <row r="408" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G407" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H407" t="str">
+        <f t="shared" si="20"/>
+        <v>flrn_history.csv</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A408" t="s">
         <v>6292</v>
       </c>
@@ -66042,8 +66161,15 @@
       <c r="F408" t="s">
         <v>7638</v>
       </c>
-    </row>
-    <row r="409" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G408" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H408" t="str">
+        <f t="shared" si="20"/>
+        <v>flrt_history.csv</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A409" t="s">
         <v>6293</v>
       </c>
@@ -66059,8 +66185,15 @@
       <c r="F409" t="s">
         <v>7639</v>
       </c>
-    </row>
-    <row r="410" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G409" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H409" t="str">
+        <f t="shared" si="20"/>
+        <v>fltb_history.csv</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A410" t="s">
         <v>6294</v>
       </c>
@@ -66076,8 +66209,15 @@
       <c r="F410" t="s">
         <v>7640</v>
       </c>
-    </row>
-    <row r="411" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G410" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H410" t="str">
+        <f t="shared" si="20"/>
+        <v>fltr_history.csv</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A411" t="s">
         <v>6295</v>
       </c>
@@ -66093,8 +66233,15 @@
       <c r="F411" t="s">
         <v>7641</v>
       </c>
-    </row>
-    <row r="412" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G411" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H411" t="str">
+        <f t="shared" si="20"/>
+        <v>fm_history.csv</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A412" t="s">
         <v>6296</v>
       </c>
@@ -66110,8 +66257,15 @@
       <c r="F412" t="s">
         <v>7642</v>
       </c>
-    </row>
-    <row r="413" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G412" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H412" t="str">
+        <f t="shared" si="20"/>
+        <v>fmat_history.csv</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A413" t="s">
         <v>6297</v>
       </c>
@@ -66127,8 +66281,15 @@
       <c r="F413" t="s">
         <v>7643</v>
       </c>
-    </row>
-    <row r="414" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G413" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H413" t="str">
+        <f t="shared" si="20"/>
+        <v>fmb_history.csv</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A414" t="s">
         <v>6298</v>
       </c>
@@ -66144,8 +66305,15 @@
       <c r="F414" t="s">
         <v>7644</v>
       </c>
-    </row>
-    <row r="415" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G414" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H414" t="str">
+        <f t="shared" si="20"/>
+        <v>fmf_history.csv</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A415" t="s">
         <v>6299</v>
       </c>
@@ -66161,8 +66329,15 @@
       <c r="F415" t="s">
         <v>7645</v>
       </c>
-    </row>
-    <row r="416" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G415" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H415" t="str">
+        <f t="shared" si="20"/>
+        <v>fmk_history.csv</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A416" t="s">
         <v>6300</v>
       </c>
@@ -66178,8 +66353,15 @@
       <c r="F416" t="s">
         <v>7646</v>
       </c>
-    </row>
-    <row r="417" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G416" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H416" t="str">
+        <f t="shared" ref="H416:H440" si="21">_xlfn.CONCAT(F416,G416)</f>
+        <v>fmy_history.csv</v>
+      </c>
+    </row>
+    <row r="417" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A417" t="s">
         <v>6301</v>
       </c>
@@ -66195,8 +66377,15 @@
       <c r="F417" t="s">
         <v>7647</v>
       </c>
-    </row>
-    <row r="418" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G417" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H417" t="str">
+        <f t="shared" si="21"/>
+        <v>fncl_history.csv</v>
+      </c>
+    </row>
+    <row r="418" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A418" t="s">
         <v>6302</v>
       </c>
@@ -66212,8 +66401,15 @@
       <c r="F418" t="s">
         <v>7648</v>
       </c>
-    </row>
-    <row r="419" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G418" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H418" t="str">
+        <f t="shared" si="21"/>
+        <v>fnda_history.csv</v>
+      </c>
+    </row>
+    <row r="419" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A419" t="s">
         <v>6303</v>
       </c>
@@ -66229,8 +66425,15 @@
       <c r="F419" t="s">
         <v>7649</v>
       </c>
-    </row>
-    <row r="420" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G419" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H419" t="str">
+        <f t="shared" si="21"/>
+        <v>fndb_history.csv</v>
+      </c>
+    </row>
+    <row r="420" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A420" t="s">
         <v>6304</v>
       </c>
@@ -66246,8 +66449,15 @@
       <c r="F420" t="s">
         <v>7650</v>
       </c>
-    </row>
-    <row r="421" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G420" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H420" t="str">
+        <f t="shared" si="21"/>
+        <v>fndc_history.csv</v>
+      </c>
+    </row>
+    <row r="421" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A421" t="s">
         <v>6305</v>
       </c>
@@ -66263,8 +66473,15 @@
       <c r="F421" t="s">
         <v>7651</v>
       </c>
-    </row>
-    <row r="422" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G421" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H421" t="str">
+        <f t="shared" si="21"/>
+        <v>fnde_history.csv</v>
+      </c>
+    </row>
+    <row r="422" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A422" t="s">
         <v>6306</v>
       </c>
@@ -66280,8 +66497,15 @@
       <c r="F422" t="s">
         <v>7652</v>
       </c>
-    </row>
-    <row r="423" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G422" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H422" t="str">
+        <f t="shared" si="21"/>
+        <v>fndf_history.csv</v>
+      </c>
+    </row>
+    <row r="423" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A423" t="s">
         <v>6307</v>
       </c>
@@ -66297,8 +66521,15 @@
       <c r="F423" t="s">
         <v>7653</v>
       </c>
-    </row>
-    <row r="424" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G423" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H423" t="str">
+        <f t="shared" si="21"/>
+        <v>fndx_history.csv</v>
+      </c>
+    </row>
+    <row r="424" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A424" t="s">
         <v>6308</v>
       </c>
@@ -66314,8 +66545,15 @@
       <c r="F424" t="s">
         <v>7654</v>
       </c>
-    </row>
-    <row r="425" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G424" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H424" t="str">
+        <f t="shared" si="21"/>
+        <v>fni_history.csv</v>
+      </c>
+    </row>
+    <row r="425" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A425" t="s">
         <v>6309</v>
       </c>
@@ -66331,8 +66569,15 @@
       <c r="F425" t="s">
         <v>7655</v>
       </c>
-    </row>
-    <row r="426" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G425" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H425" t="str">
+        <f t="shared" si="21"/>
+        <v>fnk_history.csv</v>
+      </c>
+    </row>
+    <row r="426" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A426" t="s">
         <v>6310</v>
       </c>
@@ -66348,8 +66593,15 @@
       <c r="F426" t="s">
         <v>7656</v>
       </c>
-    </row>
-    <row r="427" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G426" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H426" t="str">
+        <f t="shared" si="21"/>
+        <v>fnx_history.csv</v>
+      </c>
+    </row>
+    <row r="427" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A427" t="s">
         <v>6311</v>
       </c>
@@ -66365,8 +66617,15 @@
       <c r="F427" t="s">
         <v>7657</v>
       </c>
-    </row>
-    <row r="428" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G427" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H427" t="str">
+        <f t="shared" si="21"/>
+        <v>fny_history.csv</v>
+      </c>
+    </row>
+    <row r="428" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A428" t="s">
         <v>6312</v>
       </c>
@@ -66382,8 +66641,15 @@
       <c r="F428" t="s">
         <v>7658</v>
       </c>
-    </row>
-    <row r="429" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G428" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H428" t="str">
+        <f t="shared" si="21"/>
+        <v>foil_history.csv</v>
+      </c>
+    </row>
+    <row r="429" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A429" t="s">
         <v>6313</v>
       </c>
@@ -66399,8 +66665,15 @@
       <c r="F429" t="s">
         <v>7659</v>
       </c>
-    </row>
-    <row r="430" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G429" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H429" t="str">
+        <f t="shared" si="21"/>
+        <v>fone_history.csv</v>
+      </c>
+    </row>
+    <row r="430" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A430" t="s">
         <v>6314</v>
       </c>
@@ -66416,8 +66689,15 @@
       <c r="F430" t="s">
         <v>7660</v>
       </c>
-    </row>
-    <row r="431" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G430" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H430" t="str">
+        <f t="shared" si="21"/>
+        <v>fpa_history.csv</v>
+      </c>
+    </row>
+    <row r="431" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A431" t="s">
         <v>6315</v>
       </c>
@@ -66433,8 +66713,15 @@
       <c r="F431" t="s">
         <v>7661</v>
       </c>
-    </row>
-    <row r="432" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G431" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H431" t="str">
+        <f t="shared" si="21"/>
+        <v>fpe_history.csv</v>
+      </c>
+    </row>
+    <row r="432" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A432" t="s">
         <v>6316</v>
       </c>
@@ -66450,8 +66737,15 @@
       <c r="F432" t="s">
         <v>7662</v>
       </c>
-    </row>
-    <row r="433" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G432" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H432" t="str">
+        <f t="shared" si="21"/>
+        <v>fpf_history.csv</v>
+      </c>
+    </row>
+    <row r="433" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A433" t="s">
         <v>6317</v>
       </c>
@@ -66467,8 +66761,15 @@
       <c r="F433" t="s">
         <v>7663</v>
       </c>
-    </row>
-    <row r="434" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G433" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H433" t="str">
+        <f t="shared" si="21"/>
+        <v>fpl_history.csv</v>
+      </c>
+    </row>
+    <row r="434" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A434" t="s">
         <v>6318</v>
       </c>
@@ -66484,8 +66785,15 @@
       <c r="F434" t="s">
         <v>7664</v>
       </c>
-    </row>
-    <row r="435" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G434" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H434" t="str">
+        <f t="shared" si="21"/>
+        <v>fpx_history.csv</v>
+      </c>
+    </row>
+    <row r="435" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A435" t="s">
         <v>6319</v>
       </c>
@@ -66501,8 +66809,15 @@
       <c r="F435" t="s">
         <v>7665</v>
       </c>
-    </row>
-    <row r="436" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G435" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H435" t="str">
+        <f t="shared" si="21"/>
+        <v>fpxi_history.csv</v>
+      </c>
+    </row>
+    <row r="436" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A436" t="s">
         <v>6320</v>
       </c>
@@ -66518,8 +66833,15 @@
       <c r="F436" t="s">
         <v>7666</v>
       </c>
-    </row>
-    <row r="437" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G436" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H436" t="str">
+        <f t="shared" si="21"/>
+        <v>frak_history.csv</v>
+      </c>
+    </row>
+    <row r="437" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A437" t="s">
         <v>6321</v>
       </c>
@@ -66535,8 +66857,15 @@
       <c r="F437" t="s">
         <v>7667</v>
       </c>
-    </row>
-    <row r="438" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G437" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H437" t="str">
+        <f t="shared" si="21"/>
+        <v>frel_history.csv</v>
+      </c>
+    </row>
+    <row r="438" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A438" t="s">
         <v>6322</v>
       </c>
@@ -66552,8 +66881,15 @@
       <c r="F438" t="s">
         <v>7668</v>
       </c>
-    </row>
-    <row r="439" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G438" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H438" t="str">
+        <f t="shared" si="21"/>
+        <v>fri_history.csv</v>
+      </c>
+    </row>
+    <row r="439" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A439" t="s">
         <v>6323</v>
       </c>
@@ -66566,11 +66902,18 @@
       <c r="D439" t="s">
         <v>7232</v>
       </c>
-      <c r="F439" t="s">
+      <c r="F439" s="2" t="s">
         <v>7669</v>
       </c>
-    </row>
-    <row r="440" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G439" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H439" s="2" t="str">
+        <f t="shared" si="21"/>
+        <v>frn_history.csv</v>
+      </c>
+    </row>
+    <row r="440" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A440" t="s">
         <v>6324</v>
       </c>
@@ -66586,8 +66929,15 @@
       <c r="F440" t="s">
         <v>7670</v>
       </c>
-    </row>
-    <row r="441" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G440" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H440" t="str">
+        <f t="shared" si="21"/>
+        <v>fsd_history.csv</v>
+      </c>
+    </row>
+    <row r="441" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A441" t="s">
         <v>6325</v>
       </c>
@@ -66604,7 +66954,7 @@
         <v>7671</v>
       </c>
     </row>
-    <row r="442" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
         <v>6326</v>
       </c>
@@ -66621,7 +66971,7 @@
         <v>7672</v>
       </c>
     </row>
-    <row r="443" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
         <v>6327</v>
       </c>
@@ -66638,7 +66988,7 @@
         <v>7673</v>
       </c>
     </row>
-    <row r="444" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
         <v>6328</v>
       </c>
@@ -66655,7 +67005,7 @@
         <v>7674</v>
       </c>
     </row>
-    <row r="445" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
         <v>6329</v>
       </c>
@@ -66672,7 +67022,7 @@
         <v>7675</v>
       </c>
     </row>
-    <row r="446" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
         <v>6330</v>
       </c>
@@ -66689,7 +67039,7 @@
         <v>7676</v>
       </c>
     </row>
-    <row r="447" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
         <v>6331</v>
       </c>
@@ -66706,7 +67056,7 @@
         <v>7677</v>
       </c>
     </row>
-    <row r="448" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
         <v>6332</v>
       </c>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB13935A-FDB2-43E5-A643-73A14E9A92EC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85242E-DC9B-44C7-B668-6A544B4B7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="8955" yWindow="1320" windowWidth="21600" windowHeight="12975" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="4470" yWindow="1620" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13104" uniqueCount="8597">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13205" uniqueCount="8598">
   <si>
     <t>tickers</t>
   </si>
@@ -25826,6 +25826,9 @@
   </si>
   <si>
     <t>AER_history.csv</t>
+  </si>
+  <si>
+    <t>done</t>
   </si>
 </sst>
 </file>
@@ -56401,8 +56404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A429" workbookViewId="0">
-      <selection activeCell="H439" sqref="H390:H439"/>
+    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
+      <selection activeCell="E491" sqref="E491"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -66953,6 +66956,13 @@
       <c r="F441" t="s">
         <v>7671</v>
       </c>
+      <c r="G441" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H441" t="str">
+        <f t="shared" ref="H441:H453" si="22">_xlfn.CONCAT(F441,G441)</f>
+        <v>fsta_history.csv</v>
+      </c>
     </row>
     <row r="442" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A442" t="s">
@@ -66970,6 +66980,13 @@
       <c r="F442" t="s">
         <v>7672</v>
       </c>
+      <c r="G442" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H442" t="str">
+        <f t="shared" si="22"/>
+        <v>fsz_history.csv</v>
+      </c>
     </row>
     <row r="443" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A443" t="s">
@@ -66987,6 +67004,13 @@
       <c r="F443" t="s">
         <v>7673</v>
       </c>
+      <c r="G443" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H443" t="str">
+        <f t="shared" si="22"/>
+        <v>fta_history.csv</v>
+      </c>
     </row>
     <row r="444" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A444" t="s">
@@ -67004,6 +67028,13 @@
       <c r="F444" t="s">
         <v>7674</v>
       </c>
+      <c r="G444" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H444" t="str">
+        <f t="shared" si="22"/>
+        <v>ftc_history.csv</v>
+      </c>
     </row>
     <row r="445" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A445" t="s">
@@ -67021,6 +67052,13 @@
       <c r="F445" t="s">
         <v>7675</v>
       </c>
+      <c r="G445" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H445" t="str">
+        <f t="shared" si="22"/>
+        <v>ftcs_history.csv</v>
+      </c>
     </row>
     <row r="446" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A446" t="s">
@@ -67038,6 +67076,13 @@
       <c r="F446" t="s">
         <v>7676</v>
       </c>
+      <c r="G446" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H446" t="str">
+        <f t="shared" si="22"/>
+        <v>ftec_history.csv</v>
+      </c>
     </row>
     <row r="447" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A447" t="s">
@@ -67055,6 +67100,13 @@
       <c r="F447" t="s">
         <v>7677</v>
       </c>
+      <c r="G447" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H447" t="str">
+        <f t="shared" si="22"/>
+        <v>ftgc_history.csv</v>
+      </c>
     </row>
     <row r="448" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A448" t="s">
@@ -67072,8 +67124,15 @@
       <c r="F448" t="s">
         <v>7678</v>
       </c>
-    </row>
-    <row r="449" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G448" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H448" t="str">
+        <f t="shared" si="22"/>
+        <v>fthi_history.csv</v>
+      </c>
+    </row>
+    <row r="449" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A449" t="s">
         <v>6333</v>
       </c>
@@ -67089,8 +67148,15 @@
       <c r="F449" t="s">
         <v>7679</v>
       </c>
-    </row>
-    <row r="450" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G449" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H449" t="str">
+        <f t="shared" si="22"/>
+        <v>ftlb_history.csv</v>
+      </c>
+    </row>
+    <row r="450" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A450" t="s">
         <v>6334</v>
       </c>
@@ -67106,8 +67172,15 @@
       <c r="F450" t="s">
         <v>7680</v>
       </c>
-    </row>
-    <row r="451" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G450" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H450" t="str">
+        <f t="shared" si="22"/>
+        <v>ftls_history.csv</v>
+      </c>
+    </row>
+    <row r="451" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A451" t="s">
         <v>6335</v>
       </c>
@@ -67123,8 +67196,15 @@
       <c r="F451" t="s">
         <v>7681</v>
       </c>
-    </row>
-    <row r="452" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G451" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H451" t="str">
+        <f t="shared" si="22"/>
+        <v>ftsd_history.csv</v>
+      </c>
+    </row>
+    <row r="452" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A452" t="s">
         <v>6336</v>
       </c>
@@ -67140,8 +67220,15 @@
       <c r="F452" t="s">
         <v>7682</v>
       </c>
-    </row>
-    <row r="453" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G452" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H452" t="str">
+        <f t="shared" si="22"/>
+        <v>ftsl_history.csv</v>
+      </c>
+    </row>
+    <row r="453" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A453" t="s">
         <v>6337</v>
       </c>
@@ -67157,8 +67244,15 @@
       <c r="F453" t="s">
         <v>7683</v>
       </c>
-    </row>
-    <row r="454" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G453" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H453" t="str">
+        <f t="shared" si="22"/>
+        <v>ftsm_history.csv</v>
+      </c>
+    </row>
+    <row r="454" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A454" t="s">
         <v>6338</v>
       </c>
@@ -67175,7 +67269,7 @@
         <v>7684</v>
       </c>
     </row>
-    <row r="455" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="455" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A455" t="s">
         <v>6339</v>
       </c>
@@ -67191,8 +67285,15 @@
       <c r="F455" t="s">
         <v>7685</v>
       </c>
-    </row>
-    <row r="456" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G455" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H455" t="str">
+        <f t="shared" ref="H454:H455" si="23">_xlfn.CONCAT(F455,G455)</f>
+        <v>fud_history.csv</v>
+      </c>
+    </row>
+    <row r="456" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A456" t="s">
         <v>6340</v>
       </c>
@@ -67208,8 +67309,15 @@
       <c r="F456" t="s">
         <v>7686</v>
       </c>
-    </row>
-    <row r="457" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G456" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H456" t="str">
+        <f t="shared" ref="H456:H463" si="24">_xlfn.CONCAT(F456,G456)</f>
+        <v>fue_history.csv</v>
+      </c>
+    </row>
+    <row r="457" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A457" t="s">
         <v>6341</v>
       </c>
@@ -67225,8 +67333,15 @@
       <c r="F457" t="s">
         <v>7687</v>
       </c>
-    </row>
-    <row r="458" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G457" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H457" t="str">
+        <f t="shared" si="24"/>
+        <v>futy_history.csv</v>
+      </c>
+    </row>
+    <row r="458" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A458" t="s">
         <v>6342</v>
       </c>
@@ -67242,8 +67357,15 @@
       <c r="F458" t="s">
         <v>7688</v>
       </c>
-    </row>
-    <row r="459" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G458" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H458" t="str">
+        <f t="shared" si="24"/>
+        <v>fv_history.csv</v>
+      </c>
+    </row>
+    <row r="459" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A459" t="s">
         <v>6343</v>
       </c>
@@ -67259,8 +67381,15 @@
       <c r="F459" t="s">
         <v>7689</v>
       </c>
-    </row>
-    <row r="460" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G459" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H459" t="str">
+        <f t="shared" si="24"/>
+        <v>fvd_history.csv</v>
+      </c>
+    </row>
+    <row r="460" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A460" t="s">
         <v>6344</v>
       </c>
@@ -67276,8 +67405,15 @@
       <c r="F460" t="s">
         <v>7690</v>
       </c>
-    </row>
-    <row r="461" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G460" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H460" t="str">
+        <f t="shared" si="24"/>
+        <v>fvl_history.csv</v>
+      </c>
+    </row>
+    <row r="461" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A461" t="s">
         <v>6345</v>
       </c>
@@ -67293,8 +67429,15 @@
       <c r="F461" t="s">
         <v>7691</v>
       </c>
-    </row>
-    <row r="462" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G461" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H461" t="str">
+        <f t="shared" si="24"/>
+        <v>fwdb_history.csv</v>
+      </c>
+    </row>
+    <row r="462" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A462" t="s">
         <v>6346</v>
       </c>
@@ -67310,8 +67453,15 @@
       <c r="F462" t="s">
         <v>7692</v>
       </c>
-    </row>
-    <row r="463" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G462" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H462" t="str">
+        <f t="shared" si="24"/>
+        <v>fwdd_history.csv</v>
+      </c>
+    </row>
+    <row r="463" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A463" t="s">
         <v>6347</v>
       </c>
@@ -67327,8 +67477,15 @@
       <c r="F463" t="s">
         <v>7693</v>
       </c>
-    </row>
-    <row r="464" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G463" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H463" t="str">
+        <f t="shared" si="24"/>
+        <v>fwdi_history.csv</v>
+      </c>
+    </row>
+    <row r="464" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A464" t="s">
         <v>6348</v>
       </c>
@@ -67344,8 +67501,15 @@
       <c r="F464" t="s">
         <v>7694</v>
       </c>
-    </row>
-    <row r="465" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G464" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H464" t="str">
+        <f t="shared" ref="H464:H471" si="25">_xlfn.CONCAT(F464,G464)</f>
+        <v>fxa_history.csv</v>
+      </c>
+    </row>
+    <row r="465" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A465" t="s">
         <v>6349</v>
       </c>
@@ -67361,8 +67525,15 @@
       <c r="F465" t="s">
         <v>7695</v>
       </c>
-    </row>
-    <row r="466" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G465" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H465" t="str">
+        <f t="shared" si="25"/>
+        <v>fxb_history.csv</v>
+      </c>
+    </row>
+    <row r="466" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A466" t="s">
         <v>6350</v>
       </c>
@@ -67378,8 +67549,15 @@
       <c r="F466" t="s">
         <v>7696</v>
       </c>
-    </row>
-    <row r="467" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G466" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H466" t="str">
+        <f t="shared" si="25"/>
+        <v>fxc_history.csv</v>
+      </c>
+    </row>
+    <row r="467" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A467" t="s">
         <v>6351</v>
       </c>
@@ -67395,8 +67573,15 @@
       <c r="F467" t="s">
         <v>7697</v>
       </c>
-    </row>
-    <row r="468" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G467" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H467" t="str">
+        <f t="shared" si="25"/>
+        <v>fxch_history.csv</v>
+      </c>
+    </row>
+    <row r="468" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A468" t="s">
         <v>6352</v>
       </c>
@@ -67412,8 +67597,15 @@
       <c r="F468" t="s">
         <v>7698</v>
       </c>
-    </row>
-    <row r="469" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G468" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H468" t="str">
+        <f t="shared" si="25"/>
+        <v>fxd_history.csv</v>
+      </c>
+    </row>
+    <row r="469" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A469" t="s">
         <v>6353</v>
       </c>
@@ -67429,8 +67621,15 @@
       <c r="F469" t="s">
         <v>7699</v>
       </c>
-    </row>
-    <row r="470" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G469" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H469" t="str">
+        <f t="shared" si="25"/>
+        <v>fxe_history.csv</v>
+      </c>
+    </row>
+    <row r="470" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A470" t="s">
         <v>6354</v>
       </c>
@@ -67446,8 +67645,15 @@
       <c r="F470" t="s">
         <v>7700</v>
       </c>
-    </row>
-    <row r="471" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G470" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H470" t="str">
+        <f t="shared" si="25"/>
+        <v>fxeu_history.csv</v>
+      </c>
+    </row>
+    <row r="471" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A471" t="s">
         <v>6355</v>
       </c>
@@ -67463,8 +67669,15 @@
       <c r="F471" t="s">
         <v>7701</v>
       </c>
-    </row>
-    <row r="472" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G471" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H471" t="str">
+        <f t="shared" si="25"/>
+        <v>fxf_history.csv</v>
+      </c>
+    </row>
+    <row r="472" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A472" t="s">
         <v>6356</v>
       </c>
@@ -67480,8 +67693,15 @@
       <c r="F472" t="s">
         <v>7702</v>
       </c>
-    </row>
-    <row r="473" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G472" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H472" t="str">
+        <f t="shared" ref="H472:H490" si="26">_xlfn.CONCAT(F472,G472)</f>
+        <v>fxg_history.csv</v>
+      </c>
+    </row>
+    <row r="473" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A473" t="s">
         <v>6357</v>
       </c>
@@ -67497,8 +67717,15 @@
       <c r="F473" t="s">
         <v>7703</v>
       </c>
-    </row>
-    <row r="474" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G473" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H473" t="str">
+        <f t="shared" si="26"/>
+        <v>fxh_history.csv</v>
+      </c>
+    </row>
+    <row r="474" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A474" t="s">
         <v>6358</v>
       </c>
@@ -67514,8 +67741,15 @@
       <c r="F474" t="s">
         <v>7704</v>
       </c>
-    </row>
-    <row r="475" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G474" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H474" t="str">
+        <f t="shared" si="26"/>
+        <v>fxi_history.csv</v>
+      </c>
+    </row>
+    <row r="475" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A475" t="s">
         <v>6359</v>
       </c>
@@ -67531,8 +67765,15 @@
       <c r="F475" t="s">
         <v>7705</v>
       </c>
-    </row>
-    <row r="476" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G475" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H475" t="str">
+        <f t="shared" si="26"/>
+        <v>fxl_history.csv</v>
+      </c>
+    </row>
+    <row r="476" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A476" t="s">
         <v>6360</v>
       </c>
@@ -67548,8 +67789,15 @@
       <c r="F476" t="s">
         <v>7706</v>
       </c>
-    </row>
-    <row r="477" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G476" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H476" t="str">
+        <f t="shared" si="26"/>
+        <v>fxn_history.csv</v>
+      </c>
+    </row>
+    <row r="477" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A477" t="s">
         <v>6361</v>
       </c>
@@ -67565,8 +67813,15 @@
       <c r="F477" t="s">
         <v>7707</v>
       </c>
-    </row>
-    <row r="478" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G477" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H477" t="str">
+        <f t="shared" si="26"/>
+        <v>fxo_history.csv</v>
+      </c>
+    </row>
+    <row r="478" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A478" t="s">
         <v>6362</v>
       </c>
@@ -67582,8 +67837,15 @@
       <c r="F478" t="s">
         <v>7708</v>
       </c>
-    </row>
-    <row r="479" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G478" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H478" t="str">
+        <f t="shared" si="26"/>
+        <v>fxp_history.csv</v>
+      </c>
+    </row>
+    <row r="479" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A479" t="s">
         <v>6363</v>
       </c>
@@ -67599,8 +67861,15 @@
       <c r="F479" t="s">
         <v>7709</v>
       </c>
-    </row>
-    <row r="480" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G479" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H479" t="str">
+        <f t="shared" si="26"/>
+        <v>fxr_history.csv</v>
+      </c>
+    </row>
+    <row r="480" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A480" t="s">
         <v>6364</v>
       </c>
@@ -67616,8 +67885,15 @@
       <c r="F480" t="s">
         <v>7710</v>
       </c>
-    </row>
-    <row r="481" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G480" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H480" t="str">
+        <f t="shared" si="26"/>
+        <v>fxs_history.csv</v>
+      </c>
+    </row>
+    <row r="481" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A481" t="s">
         <v>6365</v>
       </c>
@@ -67633,8 +67909,15 @@
       <c r="F481" t="s">
         <v>7711</v>
       </c>
-    </row>
-    <row r="482" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G481" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H481" t="str">
+        <f t="shared" si="26"/>
+        <v>fxsg_history.csv</v>
+      </c>
+    </row>
+    <row r="482" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A482" t="s">
         <v>6366</v>
       </c>
@@ -67650,8 +67933,15 @@
       <c r="F482" t="s">
         <v>7712</v>
       </c>
-    </row>
-    <row r="483" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G482" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H482" t="str">
+        <f t="shared" si="26"/>
+        <v>fxu_history.csv</v>
+      </c>
+    </row>
+    <row r="483" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A483" t="s">
         <v>6367</v>
       </c>
@@ -67667,8 +67957,15 @@
       <c r="F483" t="s">
         <v>7713</v>
       </c>
-    </row>
-    <row r="484" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G483" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H483" t="str">
+        <f t="shared" si="26"/>
+        <v>fxy_history.csv</v>
+      </c>
+    </row>
+    <row r="484" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A484" t="s">
         <v>6368</v>
       </c>
@@ -67684,8 +67981,15 @@
       <c r="F484" t="s">
         <v>7714</v>
       </c>
-    </row>
-    <row r="485" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G484" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H484" t="str">
+        <f t="shared" si="26"/>
+        <v>fxz_history.csv</v>
+      </c>
+    </row>
+    <row r="485" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A485" t="s">
         <v>6369</v>
       </c>
@@ -67701,8 +68005,15 @@
       <c r="F485" t="s">
         <v>7715</v>
       </c>
-    </row>
-    <row r="486" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G485" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H485" t="str">
+        <f t="shared" si="26"/>
+        <v>fyc_history.csv</v>
+      </c>
+    </row>
+    <row r="486" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A486" t="s">
         <v>6370</v>
       </c>
@@ -67718,8 +68029,15 @@
       <c r="F486" t="s">
         <v>7716</v>
       </c>
-    </row>
-    <row r="487" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G486" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H486" t="str">
+        <f t="shared" si="26"/>
+        <v>fyld_history.csv</v>
+      </c>
+    </row>
+    <row r="487" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A487" t="s">
         <v>6371</v>
       </c>
@@ -67735,8 +68053,15 @@
       <c r="F487" t="s">
         <v>7717</v>
       </c>
-    </row>
-    <row r="488" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G487" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H487" t="str">
+        <f t="shared" si="26"/>
+        <v>fyt_history.csv</v>
+      </c>
+    </row>
+    <row r="488" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A488" t="s">
         <v>6372</v>
       </c>
@@ -67752,8 +68077,15 @@
       <c r="F488" t="s">
         <v>7718</v>
       </c>
-    </row>
-    <row r="489" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G488" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H488" t="str">
+        <f t="shared" si="26"/>
+        <v>fyx_history.csv</v>
+      </c>
+    </row>
+    <row r="489" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A489" t="s">
         <v>6373</v>
       </c>
@@ -67769,8 +68101,15 @@
       <c r="F489" t="s">
         <v>7719</v>
       </c>
-    </row>
-    <row r="490" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G489" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H489" t="str">
+        <f t="shared" si="26"/>
+        <v>gaa_history.csv</v>
+      </c>
+    </row>
+    <row r="490" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A490" t="s">
         <v>6374</v>
       </c>
@@ -67783,11 +68122,21 @@
       <c r="D490" t="s">
         <v>7232</v>
       </c>
-      <c r="F490" t="s">
+      <c r="E490" t="s">
+        <v>8597</v>
+      </c>
+      <c r="F490" s="2" t="s">
         <v>7720</v>
       </c>
-    </row>
-    <row r="491" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G490" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H490" s="2" t="str">
+        <f t="shared" si="26"/>
+        <v>gal_history.csv</v>
+      </c>
+    </row>
+    <row r="491" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A491" t="s">
         <v>6375</v>
       </c>
@@ -67803,8 +68152,15 @@
       <c r="F491" t="s">
         <v>7721</v>
       </c>
-    </row>
-    <row r="492" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G491" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H491" t="str">
+        <f t="shared" ref="H491:H554" si="27">_xlfn.CONCAT(F491,G491)</f>
+        <v>gasl_history.csv</v>
+      </c>
+    </row>
+    <row r="492" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A492" t="s">
         <v>6376</v>
       </c>
@@ -67820,8 +68176,15 @@
       <c r="F492" t="s">
         <v>7722</v>
       </c>
-    </row>
-    <row r="493" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G492" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H492" t="str">
+        <f t="shared" si="27"/>
+        <v>gaz_history.csv</v>
+      </c>
+    </row>
+    <row r="493" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A493" t="s">
         <v>6377</v>
       </c>
@@ -67837,8 +68200,15 @@
       <c r="F493" t="s">
         <v>7723</v>
       </c>
-    </row>
-    <row r="494" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G493" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H493" t="str">
+        <f t="shared" si="27"/>
+        <v>gbb_history.csv</v>
+      </c>
+    </row>
+    <row r="494" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A494" t="s">
         <v>6378</v>
       </c>
@@ -67854,8 +68224,15 @@
       <c r="F494" t="s">
         <v>7724</v>
       </c>
-    </row>
-    <row r="495" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G494" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H494" t="str">
+        <f t="shared" si="27"/>
+        <v>gbf_history.csv</v>
+      </c>
+    </row>
+    <row r="495" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A495" t="s">
         <v>6379</v>
       </c>
@@ -67871,8 +68248,15 @@
       <c r="F495" t="s">
         <v>7725</v>
       </c>
-    </row>
-    <row r="496" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G495" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H495" t="str">
+        <f t="shared" si="27"/>
+        <v>gcc_history.csv</v>
+      </c>
+    </row>
+    <row r="496" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A496" t="s">
         <v>6380</v>
       </c>
@@ -67888,8 +68272,15 @@
       <c r="F496" t="s">
         <v>7726</v>
       </c>
-    </row>
-    <row r="497" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G496" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H496" t="str">
+        <f t="shared" si="27"/>
+        <v>gce_history.csv</v>
+      </c>
+    </row>
+    <row r="497" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A497" t="s">
         <v>6381</v>
       </c>
@@ -67905,8 +68296,15 @@
       <c r="F497" t="s">
         <v>7727</v>
       </c>
-    </row>
-    <row r="498" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G497" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H497" t="str">
+        <f t="shared" si="27"/>
+        <v>gdx_history.csv</v>
+      </c>
+    </row>
+    <row r="498" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A498" t="s">
         <v>6382</v>
       </c>
@@ -67922,8 +68320,15 @@
       <c r="F498" t="s">
         <v>7728</v>
       </c>
-    </row>
-    <row r="499" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G498" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H498" t="str">
+        <f t="shared" si="27"/>
+        <v>gdxj_history.csv</v>
+      </c>
+    </row>
+    <row r="499" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A499" t="s">
         <v>6383</v>
       </c>
@@ -67939,8 +68344,15 @@
       <c r="F499" t="s">
         <v>7729</v>
       </c>
-    </row>
-    <row r="500" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G499" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H499" t="str">
+        <f t="shared" si="27"/>
+        <v>gdxs_history.csv</v>
+      </c>
+    </row>
+    <row r="500" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A500" t="s">
         <v>6384</v>
       </c>
@@ -67956,8 +68368,15 @@
       <c r="F500" t="s">
         <v>7730</v>
       </c>
-    </row>
-    <row r="501" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G500" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H500" t="str">
+        <f t="shared" si="27"/>
+        <v>gdxx_history.csv</v>
+      </c>
+    </row>
+    <row r="501" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A501" t="s">
         <v>6385</v>
       </c>
@@ -67973,8 +68392,15 @@
       <c r="F501" t="s">
         <v>7731</v>
       </c>
-    </row>
-    <row r="502" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G501" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H501" t="str">
+        <f t="shared" si="27"/>
+        <v>geur_history.csv</v>
+      </c>
+    </row>
+    <row r="502" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A502" t="s">
         <v>6386</v>
       </c>
@@ -67990,8 +68416,15 @@
       <c r="F502" t="s">
         <v>7732</v>
       </c>
-    </row>
-    <row r="503" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G502" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H502" t="str">
+        <f t="shared" si="27"/>
+        <v>gex_history.csv</v>
+      </c>
+    </row>
+    <row r="503" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A503" t="s">
         <v>6387</v>
       </c>
@@ -68007,8 +68440,15 @@
       <c r="F503" t="s">
         <v>7733</v>
       </c>
-    </row>
-    <row r="504" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G503" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H503" t="str">
+        <f t="shared" si="27"/>
+        <v>ghii_history.csv</v>
+      </c>
+    </row>
+    <row r="504" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A504" t="s">
         <v>6388</v>
       </c>
@@ -68024,8 +68464,15 @@
       <c r="F504" t="s">
         <v>7734</v>
       </c>
-    </row>
-    <row r="505" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G504" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H504" t="str">
+        <f t="shared" si="27"/>
+        <v>gii_history.csv</v>
+      </c>
+    </row>
+    <row r="505" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A505" t="s">
         <v>6389</v>
       </c>
@@ -68041,8 +68488,15 @@
       <c r="F505" t="s">
         <v>7735</v>
       </c>
-    </row>
-    <row r="506" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G505" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H505" t="str">
+        <f t="shared" si="27"/>
+        <v>gld_history.csv</v>
+      </c>
+    </row>
+    <row r="506" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A506" t="s">
         <v>6390</v>
       </c>
@@ -68058,8 +68512,15 @@
       <c r="F506" t="s">
         <v>7736</v>
       </c>
-    </row>
-    <row r="507" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G506" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H506" t="str">
+        <f t="shared" si="27"/>
+        <v>gldi_history.csv</v>
+      </c>
+    </row>
+    <row r="507" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A507" t="s">
         <v>6391</v>
       </c>
@@ -68075,8 +68536,15 @@
       <c r="F507" t="s">
         <v>7737</v>
       </c>
-    </row>
-    <row r="508" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G507" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H507" t="str">
+        <f t="shared" si="27"/>
+        <v>gll_history.csv</v>
+      </c>
+    </row>
+    <row r="508" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A508" t="s">
         <v>6392</v>
       </c>
@@ -68092,8 +68560,15 @@
       <c r="F508" t="s">
         <v>7738</v>
       </c>
-    </row>
-    <row r="509" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G508" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H508" t="str">
+        <f t="shared" si="27"/>
+        <v>gltr_history.csv</v>
+      </c>
+    </row>
+    <row r="509" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A509" t="s">
         <v>6393</v>
       </c>
@@ -68109,8 +68584,15 @@
       <c r="F509" t="s">
         <v>7739</v>
       </c>
-    </row>
-    <row r="510" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G509" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H509" t="str">
+        <f t="shared" si="27"/>
+        <v>gmf_history.csv</v>
+      </c>
+    </row>
+    <row r="510" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A510" t="s">
         <v>6394</v>
       </c>
@@ -68126,8 +68608,15 @@
       <c r="F510" t="s">
         <v>7740</v>
       </c>
-    </row>
-    <row r="511" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G510" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H510" t="str">
+        <f t="shared" si="27"/>
+        <v>gmom_history.csv</v>
+      </c>
+    </row>
+    <row r="511" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A511" t="s">
         <v>6395</v>
       </c>
@@ -68143,8 +68632,15 @@
       <c r="F511" t="s">
         <v>7741</v>
       </c>
-    </row>
-    <row r="512" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G511" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H511" t="str">
+        <f t="shared" si="27"/>
+        <v>gnma_history.csv</v>
+      </c>
+    </row>
+    <row r="512" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A512" t="s">
         <v>6396</v>
       </c>
@@ -68160,8 +68656,15 @@
       <c r="F512" t="s">
         <v>7742</v>
       </c>
-    </row>
-    <row r="513" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G512" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H512" t="str">
+        <f t="shared" si="27"/>
+        <v>gnr_history.csv</v>
+      </c>
+    </row>
+    <row r="513" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A513" t="s">
         <v>6397</v>
       </c>
@@ -68177,8 +68680,15 @@
       <c r="F513" t="s">
         <v>7743</v>
       </c>
-    </row>
-    <row r="514" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G513" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H513" t="str">
+        <f t="shared" si="27"/>
+        <v>govt_history.csv</v>
+      </c>
+    </row>
+    <row r="514" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A514" t="s">
         <v>6398</v>
       </c>
@@ -68194,8 +68704,15 @@
       <c r="F514" t="s">
         <v>7744</v>
       </c>
-    </row>
-    <row r="515" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G514" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H514" t="str">
+        <f t="shared" si="27"/>
+        <v>gqre_history.csv</v>
+      </c>
+    </row>
+    <row r="515" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A515" t="s">
         <v>6399</v>
       </c>
@@ -68211,8 +68728,15 @@
       <c r="F515" t="s">
         <v>7745</v>
       </c>
-    </row>
-    <row r="516" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G515" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H515" t="str">
+        <f t="shared" si="27"/>
+        <v>grek_history.csv</v>
+      </c>
+    </row>
+    <row r="516" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A516" t="s">
         <v>6400</v>
       </c>
@@ -68228,8 +68752,15 @@
       <c r="F516" t="s">
         <v>7746</v>
       </c>
-    </row>
-    <row r="517" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G516" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H516" t="str">
+        <f t="shared" si="27"/>
+        <v>gres_history.csv</v>
+      </c>
+    </row>
+    <row r="517" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A517" t="s">
         <v>6401</v>
       </c>
@@ -68245,8 +68776,15 @@
       <c r="F517" t="s">
         <v>7747</v>
       </c>
-    </row>
-    <row r="518" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G517" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H517" t="str">
+        <f t="shared" si="27"/>
+        <v>gri_history.csv</v>
+      </c>
+    </row>
+    <row r="518" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A518" t="s">
         <v>6402</v>
       </c>
@@ -68262,8 +68800,15 @@
       <c r="F518" t="s">
         <v>7748</v>
       </c>
-    </row>
-    <row r="519" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G518" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H518" t="str">
+        <f t="shared" si="27"/>
+        <v>grid_history.csv</v>
+      </c>
+    </row>
+    <row r="519" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A519" t="s">
         <v>6403</v>
       </c>
@@ -68279,8 +68824,15 @@
       <c r="F519" t="s">
         <v>7749</v>
       </c>
-    </row>
-    <row r="520" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G519" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H519" t="str">
+        <f t="shared" si="27"/>
+        <v>grn_history.csv</v>
+      </c>
+    </row>
+    <row r="520" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A520" t="s">
         <v>6404</v>
       </c>
@@ -68296,8 +68848,15 @@
       <c r="F520" t="s">
         <v>7750</v>
       </c>
-    </row>
-    <row r="521" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G520" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H520" t="str">
+        <f t="shared" si="27"/>
+        <v>gru_history.csv</v>
+      </c>
+    </row>
+    <row r="521" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A521" t="s">
         <v>6405</v>
       </c>
@@ -68313,8 +68872,15 @@
       <c r="F521" t="s">
         <v>7751</v>
       </c>
-    </row>
-    <row r="522" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G521" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H521" t="str">
+        <f t="shared" si="27"/>
+        <v>grwn_history.csv</v>
+      </c>
+    </row>
+    <row r="522" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A522" t="s">
         <v>6406</v>
       </c>
@@ -68330,8 +68896,15 @@
       <c r="F522" t="s">
         <v>7752</v>
       </c>
-    </row>
-    <row r="523" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G522" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H522" t="str">
+        <f t="shared" si="27"/>
+        <v>gsc_history.csv</v>
+      </c>
+    </row>
+    <row r="523" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A523" t="s">
         <v>6407</v>
       </c>
@@ -68347,8 +68920,15 @@
       <c r="F523" t="s">
         <v>7753</v>
       </c>
-    </row>
-    <row r="524" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G523" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H523" t="str">
+        <f t="shared" si="27"/>
+        <v>gsg_history.csv</v>
+      </c>
+    </row>
+    <row r="524" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A524" t="s">
         <v>6408</v>
       </c>
@@ -68364,8 +68944,15 @@
       <c r="F524" t="s">
         <v>7754</v>
       </c>
-    </row>
-    <row r="525" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G524" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H524" t="str">
+        <f t="shared" si="27"/>
+        <v>gsp_history.csv</v>
+      </c>
+    </row>
+    <row r="525" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A525" t="s">
         <v>6409</v>
       </c>
@@ -68381,8 +68968,15 @@
       <c r="F525" t="s">
         <v>7755</v>
       </c>
-    </row>
-    <row r="526" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G525" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H525" t="str">
+        <f t="shared" si="27"/>
+        <v>gsy_history.csv</v>
+      </c>
+    </row>
+    <row r="526" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A526" t="s">
         <v>6410</v>
       </c>
@@ -68398,8 +68992,15 @@
       <c r="F526" t="s">
         <v>7756</v>
       </c>
-    </row>
-    <row r="527" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G526" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H526" t="str">
+        <f t="shared" si="27"/>
+        <v>gulf_history.csv</v>
+      </c>
+    </row>
+    <row r="527" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A527" t="s">
         <v>6411</v>
       </c>
@@ -68415,8 +69016,15 @@
       <c r="F527" t="s">
         <v>7757</v>
       </c>
-    </row>
-    <row r="528" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G527" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H527" t="str">
+        <f t="shared" si="27"/>
+        <v>gunr_history.csv</v>
+      </c>
+    </row>
+    <row r="528" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A528" t="s">
         <v>6412</v>
       </c>
@@ -68432,8 +69040,15 @@
       <c r="F528" t="s">
         <v>7758</v>
       </c>
-    </row>
-    <row r="529" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G528" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H528" t="str">
+        <f t="shared" si="27"/>
+        <v>guru_history.csv</v>
+      </c>
+    </row>
+    <row r="529" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A529" t="s">
         <v>6413</v>
       </c>
@@ -68449,8 +69064,15 @@
       <c r="F529" t="s">
         <v>7759</v>
       </c>
-    </row>
-    <row r="530" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G529" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H529" t="str">
+        <f t="shared" si="27"/>
+        <v>gush_history.csv</v>
+      </c>
+    </row>
+    <row r="530" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A530" t="s">
         <v>6414</v>
       </c>
@@ -68466,8 +69088,15 @@
       <c r="F530" t="s">
         <v>7760</v>
       </c>
-    </row>
-    <row r="531" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G530" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H530" t="str">
+        <f t="shared" si="27"/>
+        <v>gval_history.csv</v>
+      </c>
+    </row>
+    <row r="531" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A531" t="s">
         <v>6415</v>
       </c>
@@ -68483,8 +69112,15 @@
       <c r="F531" t="s">
         <v>7761</v>
       </c>
-    </row>
-    <row r="532" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G531" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H531" t="str">
+        <f t="shared" si="27"/>
+        <v>gvi_history.csv</v>
+      </c>
+    </row>
+    <row r="532" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A532" t="s">
         <v>6416</v>
       </c>
@@ -68500,8 +69136,15 @@
       <c r="F532" t="s">
         <v>7762</v>
       </c>
-    </row>
-    <row r="533" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G532" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H532" t="str">
+        <f t="shared" si="27"/>
+        <v>gwx_history.csv</v>
+      </c>
+    </row>
+    <row r="533" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A533" t="s">
         <v>6417</v>
       </c>
@@ -68517,8 +69160,15 @@
       <c r="F533" t="s">
         <v>7763</v>
       </c>
-    </row>
-    <row r="534" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G533" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H533" t="str">
+        <f t="shared" si="27"/>
+        <v>gxc_history.csv</v>
+      </c>
+    </row>
+    <row r="534" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A534" t="s">
         <v>6418</v>
       </c>
@@ -68534,8 +69184,15 @@
       <c r="F534" t="s">
         <v>7764</v>
       </c>
-    </row>
-    <row r="535" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G534" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H534" t="str">
+        <f t="shared" si="27"/>
+        <v>gxf_history.csv</v>
+      </c>
+    </row>
+    <row r="535" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A535" t="s">
         <v>6419</v>
       </c>
@@ -68551,8 +69208,15 @@
       <c r="F535" t="s">
         <v>7765</v>
       </c>
-    </row>
-    <row r="536" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G535" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H535" t="str">
+        <f t="shared" si="27"/>
+        <v>gxg_history.csv</v>
+      </c>
+    </row>
+    <row r="536" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A536" t="s">
         <v>6420</v>
       </c>
@@ -68568,8 +69232,15 @@
       <c r="F536" t="s">
         <v>7766</v>
       </c>
-    </row>
-    <row r="537" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G536" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H536" t="str">
+        <f t="shared" si="27"/>
+        <v>gyen_history.csv</v>
+      </c>
+    </row>
+    <row r="537" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A537" t="s">
         <v>6421</v>
       </c>
@@ -68585,8 +69256,15 @@
       <c r="F537" t="s">
         <v>7767</v>
       </c>
-    </row>
-    <row r="538" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G537" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H537" t="str">
+        <f t="shared" si="27"/>
+        <v>gyld_history.csv</v>
+      </c>
+    </row>
+    <row r="538" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A538" t="s">
         <v>6422</v>
       </c>
@@ -68602,8 +69280,15 @@
       <c r="F538" t="s">
         <v>7768</v>
       </c>
-    </row>
-    <row r="539" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G538" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H538" t="str">
+        <f t="shared" si="27"/>
+        <v>hao_history.csv</v>
+      </c>
+    </row>
+    <row r="539" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A539" t="s">
         <v>6423</v>
       </c>
@@ -68619,8 +69304,15 @@
       <c r="F539" t="s">
         <v>7769</v>
       </c>
-    </row>
-    <row r="540" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G539" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H539" t="str">
+        <f t="shared" si="27"/>
+        <v>hap_history.csv</v>
+      </c>
+    </row>
+    <row r="540" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A540" t="s">
         <v>6424</v>
       </c>
@@ -68633,11 +69325,18 @@
       <c r="D540" t="s">
         <v>7232</v>
       </c>
-      <c r="F540" t="s">
+      <c r="F540" s="2" t="s">
         <v>7770</v>
       </c>
-    </row>
-    <row r="541" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G540" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H540" s="2" t="str">
+        <f t="shared" si="27"/>
+        <v>hdg_history.csv</v>
+      </c>
+    </row>
+    <row r="541" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A541" t="s">
         <v>6425</v>
       </c>
@@ -68653,8 +69352,15 @@
       <c r="F541" t="s">
         <v>7771</v>
       </c>
-    </row>
-    <row r="542" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G541" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H541" t="str">
+        <f t="shared" ref="H541" si="28">_xlfn.CONCAT(F541,G541)</f>
+        <v>hdge_history.csv</v>
+      </c>
+    </row>
+    <row r="542" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A542" t="s">
         <v>6426</v>
       </c>
@@ -68671,7 +69377,7 @@
         <v>7772</v>
       </c>
     </row>
-    <row r="543" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
         <v>6427</v>
       </c>
@@ -68688,7 +69394,7 @@
         <v>7773</v>
       </c>
     </row>
-    <row r="544" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
         <v>6428</v>
       </c>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C85242E-DC9B-44C7-B668-6A544B4B7C8E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534742B7-186F-4324-A973-733682138E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4470" yWindow="1620" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="7260" yWindow="1905" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13205" uniqueCount="8598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13255" uniqueCount="8598">
   <si>
     <t>tickers</t>
   </si>
@@ -56404,8 +56404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A481" workbookViewId="0">
-      <selection activeCell="E491" sqref="E491"/>
+    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
+      <selection activeCell="E590" sqref="E590"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -67289,7 +67289,7 @@
         <v>5885</v>
       </c>
       <c r="H455" t="str">
-        <f t="shared" ref="H454:H455" si="23">_xlfn.CONCAT(F455,G455)</f>
+        <f t="shared" ref="H455" si="23">_xlfn.CONCAT(F455,G455)</f>
         <v>fud_history.csv</v>
       </c>
     </row>
@@ -68156,7 +68156,7 @@
         <v>5885</v>
       </c>
       <c r="H491" t="str">
-        <f t="shared" ref="H491:H554" si="27">_xlfn.CONCAT(F491,G491)</f>
+        <f t="shared" ref="H491:H540" si="27">_xlfn.CONCAT(F491,G491)</f>
         <v>gasl_history.csv</v>
       </c>
     </row>
@@ -69376,6 +69376,13 @@
       <c r="F542" t="s">
         <v>7772</v>
       </c>
+      <c r="G542" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H542" t="str">
+        <f t="shared" ref="H542:H585" si="29">_xlfn.CONCAT(F542,G542)</f>
+        <v>hdv_history.csv</v>
+      </c>
     </row>
     <row r="543" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A543" t="s">
@@ -69393,6 +69400,13 @@
       <c r="F543" t="s">
         <v>7773</v>
       </c>
+      <c r="G543" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H543" t="str">
+        <f t="shared" si="29"/>
+        <v>heco_history.csv</v>
+      </c>
     </row>
     <row r="544" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A544" t="s">
@@ -69410,8 +69424,15 @@
       <c r="F544" t="s">
         <v>7774</v>
       </c>
-    </row>
-    <row r="545" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G544" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H544" t="str">
+        <f t="shared" si="29"/>
+        <v>hedj_history.csv</v>
+      </c>
+    </row>
+    <row r="545" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A545" t="s">
         <v>6429</v>
       </c>
@@ -69427,8 +69448,15 @@
       <c r="F545" t="s">
         <v>7775</v>
       </c>
-    </row>
-    <row r="546" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G545" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H545" t="str">
+        <f t="shared" si="29"/>
+        <v>heem_history.csv</v>
+      </c>
+    </row>
+    <row r="546" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A546" t="s">
         <v>6430</v>
       </c>
@@ -69444,8 +69472,15 @@
       <c r="F546" t="s">
         <v>7776</v>
       </c>
-    </row>
-    <row r="547" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G546" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H546" t="str">
+        <f t="shared" si="29"/>
+        <v>hefa_history.csv</v>
+      </c>
+    </row>
+    <row r="547" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A547" t="s">
         <v>6431</v>
       </c>
@@ -69461,8 +69496,15 @@
       <c r="F547" t="s">
         <v>7777</v>
       </c>
-    </row>
-    <row r="548" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G547" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H547" t="str">
+        <f t="shared" si="29"/>
+        <v>hevy_history.csv</v>
+      </c>
+    </row>
+    <row r="548" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A548" t="s">
         <v>6432</v>
       </c>
@@ -69478,8 +69520,15 @@
       <c r="F548" t="s">
         <v>7778</v>
       </c>
-    </row>
-    <row r="549" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G548" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H548" t="str">
+        <f t="shared" si="29"/>
+        <v>hewg_history.csv</v>
+      </c>
+    </row>
+    <row r="549" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A549" t="s">
         <v>6433</v>
       </c>
@@ -69495,8 +69544,15 @@
       <c r="F549" t="s">
         <v>7779</v>
       </c>
-    </row>
-    <row r="550" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G549" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H549" t="str">
+        <f t="shared" si="29"/>
+        <v>hewj_history.csv</v>
+      </c>
+    </row>
+    <row r="550" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A550" t="s">
         <v>6434</v>
       </c>
@@ -69512,8 +69568,15 @@
       <c r="F550" t="s">
         <v>7780</v>
       </c>
-    </row>
-    <row r="551" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G550" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H550" t="str">
+        <f t="shared" si="29"/>
+        <v>hezu_history.csv</v>
+      </c>
+    </row>
+    <row r="551" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A551" t="s">
         <v>6435</v>
       </c>
@@ -69529,8 +69592,15 @@
       <c r="F551" t="s">
         <v>7781</v>
       </c>
-    </row>
-    <row r="552" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G551" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H551" t="str">
+        <f t="shared" si="29"/>
+        <v>hgi_history.csv</v>
+      </c>
+    </row>
+    <row r="552" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A552" t="s">
         <v>6436</v>
       </c>
@@ -69546,8 +69616,15 @@
       <c r="F552" t="s">
         <v>7782</v>
       </c>
-    </row>
-    <row r="553" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G552" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H552" t="str">
+        <f t="shared" si="29"/>
+        <v>hilo_history.csv</v>
+      </c>
+    </row>
+    <row r="553" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A553" t="s">
         <v>6437</v>
       </c>
@@ -69563,8 +69640,15 @@
       <c r="F553" t="s">
         <v>7783</v>
       </c>
-    </row>
-    <row r="554" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G553" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H553" t="str">
+        <f t="shared" si="29"/>
+        <v>hold_history.csv</v>
+      </c>
+    </row>
+    <row r="554" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A554" t="s">
         <v>6438</v>
       </c>
@@ -69580,8 +69664,15 @@
       <c r="F554" t="s">
         <v>7784</v>
       </c>
-    </row>
-    <row r="555" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G554" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H554" t="str">
+        <f t="shared" si="29"/>
+        <v>hspx_history.csv</v>
+      </c>
+    </row>
+    <row r="555" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A555" t="s">
         <v>6439</v>
       </c>
@@ -69597,8 +69688,15 @@
       <c r="F555" t="s">
         <v>7785</v>
       </c>
-    </row>
-    <row r="556" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G555" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H555" t="str">
+        <f t="shared" si="29"/>
+        <v>huse_history.csv</v>
+      </c>
+    </row>
+    <row r="556" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A556" t="s">
         <v>6440</v>
       </c>
@@ -69614,8 +69712,15 @@
       <c r="F556" t="s">
         <v>7786</v>
       </c>
-    </row>
-    <row r="557" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G556" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H556" t="str">
+        <f t="shared" si="29"/>
+        <v>hyd_history.csv</v>
+      </c>
+    </row>
+    <row r="557" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A557" t="s">
         <v>6441</v>
       </c>
@@ -69631,8 +69736,15 @@
       <c r="F557" t="s">
         <v>7787</v>
       </c>
-    </row>
-    <row r="558" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G557" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H557" t="str">
+        <f t="shared" si="29"/>
+        <v>hyem_history.csv</v>
+      </c>
+    </row>
+    <row r="558" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A558" t="s">
         <v>6442</v>
       </c>
@@ -69648,8 +69760,15 @@
       <c r="F558" t="s">
         <v>7788</v>
       </c>
-    </row>
-    <row r="559" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G558" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H558" t="str">
+        <f t="shared" si="29"/>
+        <v>hyg_history.csv</v>
+      </c>
+    </row>
+    <row r="559" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A559" t="s">
         <v>6443</v>
       </c>
@@ -69665,8 +69784,15 @@
       <c r="F559" t="s">
         <v>7789</v>
       </c>
-    </row>
-    <row r="560" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G559" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H559" t="str">
+        <f t="shared" si="29"/>
+        <v>hygh_history.csv</v>
+      </c>
+    </row>
+    <row r="560" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A560" t="s">
         <v>6444</v>
       </c>
@@ -69682,8 +69808,15 @@
       <c r="F560" t="s">
         <v>7790</v>
       </c>
-    </row>
-    <row r="561" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G560" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H560" t="str">
+        <f t="shared" si="29"/>
+        <v>hyih_history.csv</v>
+      </c>
+    </row>
+    <row r="561" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A561" t="s">
         <v>6445</v>
       </c>
@@ -69699,8 +69832,15 @@
       <c r="F561" t="s">
         <v>7791</v>
       </c>
-    </row>
-    <row r="562" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G561" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H561" t="str">
+        <f t="shared" si="29"/>
+        <v>hyld_history.csv</v>
+      </c>
+    </row>
+    <row r="562" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A562" t="s">
         <v>6446</v>
       </c>
@@ -69716,8 +69856,15 @@
       <c r="F562" t="s">
         <v>7792</v>
       </c>
-    </row>
-    <row r="563" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G562" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H562" t="str">
+        <f t="shared" si="29"/>
+        <v>hyls_history.csv</v>
+      </c>
+    </row>
+    <row r="563" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A563" t="s">
         <v>6447</v>
       </c>
@@ -69733,8 +69880,15 @@
       <c r="F563" t="s">
         <v>7793</v>
       </c>
-    </row>
-    <row r="564" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G563" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H563" t="str">
+        <f t="shared" si="29"/>
+        <v>hymb_history.csv</v>
+      </c>
+    </row>
+    <row r="564" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A564" t="s">
         <v>6448</v>
       </c>
@@ -69750,8 +69904,15 @@
       <c r="F564" t="s">
         <v>7794</v>
       </c>
-    </row>
-    <row r="565" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G564" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H564" t="str">
+        <f t="shared" si="29"/>
+        <v>hynd_history.csv</v>
+      </c>
+    </row>
+    <row r="565" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A565" t="s">
         <v>6449</v>
       </c>
@@ -69767,8 +69928,15 @@
       <c r="F565" t="s">
         <v>7795</v>
       </c>
-    </row>
-    <row r="566" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G565" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H565" t="str">
+        <f t="shared" si="29"/>
+        <v>hys_history.csv</v>
+      </c>
+    </row>
+    <row r="566" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A566" t="s">
         <v>6450</v>
       </c>
@@ -69784,8 +69952,15 @@
       <c r="F566" t="s">
         <v>7796</v>
       </c>
-    </row>
-    <row r="567" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G566" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H566" t="str">
+        <f t="shared" si="29"/>
+        <v>hyzd_history.csv</v>
+      </c>
+    </row>
+    <row r="567" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A567" t="s">
         <v>6451</v>
       </c>
@@ -69801,8 +69976,15 @@
       <c r="F567" t="s">
         <v>7797</v>
       </c>
-    </row>
-    <row r="568" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G567" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H567" t="str">
+        <f t="shared" si="29"/>
+        <v>iai_history.csv</v>
+      </c>
+    </row>
+    <row r="568" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A568" t="s">
         <v>6452</v>
       </c>
@@ -69818,8 +70000,15 @@
       <c r="F568" t="s">
         <v>7798</v>
       </c>
-    </row>
-    <row r="569" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G568" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H568" t="str">
+        <f t="shared" si="29"/>
+        <v>iak_history.csv</v>
+      </c>
+    </row>
+    <row r="569" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A569" t="s">
         <v>6453</v>
       </c>
@@ -69835,8 +70024,15 @@
       <c r="F569" t="s">
         <v>7799</v>
       </c>
-    </row>
-    <row r="570" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G569" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H569" t="str">
+        <f t="shared" si="29"/>
+        <v>iat_history.csv</v>
+      </c>
+    </row>
+    <row r="570" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A570" t="s">
         <v>6454</v>
       </c>
@@ -69852,8 +70048,15 @@
       <c r="F570" t="s">
         <v>7800</v>
       </c>
-    </row>
-    <row r="571" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G570" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H570" t="str">
+        <f t="shared" si="29"/>
+        <v>iau_history.csv</v>
+      </c>
+    </row>
+    <row r="571" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A571" t="s">
         <v>6455</v>
       </c>
@@ -69869,8 +70072,15 @@
       <c r="F571" t="s">
         <v>7801</v>
       </c>
-    </row>
-    <row r="572" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G571" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H571" t="str">
+        <f t="shared" si="29"/>
+        <v>ibb_history.csv</v>
+      </c>
+    </row>
+    <row r="572" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A572" t="s">
         <v>6456</v>
       </c>
@@ -69886,8 +70096,15 @@
       <c r="F572" t="s">
         <v>7802</v>
       </c>
-    </row>
-    <row r="573" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G572" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H572" t="str">
+        <f t="shared" si="29"/>
+        <v>ibcc_history.csv</v>
+      </c>
+    </row>
+    <row r="573" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A573" t="s">
         <v>6457</v>
       </c>
@@ -69903,8 +70120,15 @@
       <c r="F573" t="s">
         <v>7803</v>
       </c>
-    </row>
-    <row r="574" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G573" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H573" t="str">
+        <f t="shared" si="29"/>
+        <v>ibcd_history.csv</v>
+      </c>
+    </row>
+    <row r="574" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A574" t="s">
         <v>6458</v>
       </c>
@@ -69920,8 +70144,15 @@
       <c r="F574" t="s">
         <v>7804</v>
       </c>
-    </row>
-    <row r="575" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G574" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H574" t="str">
+        <f t="shared" si="29"/>
+        <v>ibce_history.csv</v>
+      </c>
+    </row>
+    <row r="575" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A575" t="s">
         <v>6459</v>
       </c>
@@ -69937,8 +70168,15 @@
       <c r="F575" t="s">
         <v>7805</v>
       </c>
-    </row>
-    <row r="576" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G575" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H575" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdb_history.csv</v>
+      </c>
+    </row>
+    <row r="576" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A576" t="s">
         <v>6460</v>
       </c>
@@ -69954,8 +70192,15 @@
       <c r="F576" t="s">
         <v>7806</v>
       </c>
-    </row>
-    <row r="577" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G576" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H576" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdc_history.csv</v>
+      </c>
+    </row>
+    <row r="577" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A577" t="s">
         <v>6461</v>
       </c>
@@ -69971,8 +70216,15 @@
       <c r="F577" t="s">
         <v>7807</v>
       </c>
-    </row>
-    <row r="578" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G577" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H577" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdd_history.csv</v>
+      </c>
+    </row>
+    <row r="578" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A578" t="s">
         <v>6462</v>
       </c>
@@ -69988,8 +70240,15 @@
       <c r="F578" t="s">
         <v>7808</v>
       </c>
-    </row>
-    <row r="579" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G578" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H578" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdh_history.csv</v>
+      </c>
+    </row>
+    <row r="579" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A579" t="s">
         <v>6463</v>
       </c>
@@ -70005,8 +70264,15 @@
       <c r="F579" t="s">
         <v>7809</v>
       </c>
-    </row>
-    <row r="580" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G579" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H579" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdj_history.csv</v>
+      </c>
+    </row>
+    <row r="580" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A580" t="s">
         <v>6464</v>
       </c>
@@ -70022,8 +70288,15 @@
       <c r="F580" t="s">
         <v>7810</v>
       </c>
-    </row>
-    <row r="581" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G580" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H580" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdk_history.csv</v>
+      </c>
+    </row>
+    <row r="581" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A581" t="s">
         <v>6465</v>
       </c>
@@ -70039,8 +70312,15 @@
       <c r="F581" t="s">
         <v>7811</v>
       </c>
-    </row>
-    <row r="582" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G581" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H581" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdl_history.csv</v>
+      </c>
+    </row>
+    <row r="582" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A582" t="s">
         <v>6466</v>
       </c>
@@ -70056,8 +70336,15 @@
       <c r="F582" t="s">
         <v>7812</v>
       </c>
-    </row>
-    <row r="583" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G582" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H582" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdm_history.csv</v>
+      </c>
+    </row>
+    <row r="583" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A583" t="s">
         <v>6467</v>
       </c>
@@ -70073,8 +70360,15 @@
       <c r="F583" t="s">
         <v>7813</v>
       </c>
-    </row>
-    <row r="584" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G583" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H583" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdn_history.csv</v>
+      </c>
+    </row>
+    <row r="584" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A584" t="s">
         <v>6468</v>
       </c>
@@ -70090,8 +70384,15 @@
       <c r="F584" t="s">
         <v>7814</v>
       </c>
-    </row>
-    <row r="585" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G584" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H584" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdo_history.csv</v>
+      </c>
+    </row>
+    <row r="585" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A585" t="s">
         <v>6469</v>
       </c>
@@ -70107,8 +70408,15 @@
       <c r="F585" t="s">
         <v>7815</v>
       </c>
-    </row>
-    <row r="586" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G585" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H585" t="str">
+        <f t="shared" si="29"/>
+        <v>ibdp_history.csv</v>
+      </c>
+    </row>
+    <row r="586" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A586" t="s">
         <v>6470</v>
       </c>
@@ -70124,8 +70432,15 @@
       <c r="F586" t="s">
         <v>7816</v>
       </c>
-    </row>
-    <row r="587" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G586" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H586" t="str">
+        <f t="shared" ref="H586:H591" si="30">_xlfn.CONCAT(F586,G586)</f>
+        <v>ibdq_history.csv</v>
+      </c>
+    </row>
+    <row r="587" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A587" t="s">
         <v>6471</v>
       </c>
@@ -70141,8 +70456,15 @@
       <c r="F587" t="s">
         <v>7817</v>
       </c>
-    </row>
-    <row r="588" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G587" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H587" t="str">
+        <f t="shared" si="30"/>
+        <v>ibln_history.csv</v>
+      </c>
+    </row>
+    <row r="588" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A588" t="s">
         <v>6472</v>
       </c>
@@ -70158,8 +70480,15 @@
       <c r="F588" t="s">
         <v>7818</v>
       </c>
-    </row>
-    <row r="589" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G588" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H588" t="str">
+        <f t="shared" si="30"/>
+        <v>ibmg_history.csv</v>
+      </c>
+    </row>
+    <row r="589" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A589" t="s">
         <v>6473</v>
       </c>
@@ -70175,8 +70504,15 @@
       <c r="F589" t="s">
         <v>7819</v>
       </c>
-    </row>
-    <row r="590" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G589" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H589" t="str">
+        <f t="shared" si="30"/>
+        <v>ibmh_history.csv</v>
+      </c>
+    </row>
+    <row r="590" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A590" t="s">
         <v>6474</v>
       </c>
@@ -70189,11 +70525,18 @@
       <c r="D590" t="s">
         <v>7232</v>
       </c>
-      <c r="F590" t="s">
+      <c r="F590" s="2" t="s">
         <v>7820</v>
       </c>
-    </row>
-    <row r="591" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G590" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H590" s="2" t="str">
+        <f t="shared" si="30"/>
+        <v>ibmi_history.csv</v>
+      </c>
+    </row>
+    <row r="591" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A591" t="s">
         <v>6475</v>
       </c>
@@ -70209,8 +70552,15 @@
       <c r="F591" t="s">
         <v>7821</v>
       </c>
-    </row>
-    <row r="592" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G591" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H591" t="str">
+        <f t="shared" si="30"/>
+        <v>ibnd_history.csv</v>
+      </c>
+    </row>
+    <row r="592" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A592" t="s">
         <v>6476</v>
       </c>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{534742B7-186F-4324-A973-733682138E80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973E839-6828-4268-9FC5-5F1663719E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7260" yWindow="1905" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="13215" yWindow="555" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13255" uniqueCount="8598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="8598">
   <si>
     <t>tickers</t>
   </si>
@@ -56404,8 +56404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A579" workbookViewId="0">
-      <selection activeCell="E590" sqref="E590"/>
+    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
+      <selection activeCell="F690" sqref="F690:H690"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -70525,6 +70525,9 @@
       <c r="D590" t="s">
         <v>7232</v>
       </c>
+      <c r="E590" t="s">
+        <v>8597</v>
+      </c>
       <c r="F590" s="2" t="s">
         <v>7820</v>
       </c>
@@ -70576,8 +70579,15 @@
       <c r="F592" t="s">
         <v>7822</v>
       </c>
-    </row>
-    <row r="593" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G592" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H592" t="str">
+        <f t="shared" ref="H592:H641" si="31">_xlfn.CONCAT(F592,G592)</f>
+        <v>icf_history.csv</v>
+      </c>
+    </row>
+    <row r="593" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A593" t="s">
         <v>6477</v>
       </c>
@@ -70593,8 +70603,15 @@
       <c r="F593" t="s">
         <v>7823</v>
       </c>
-    </row>
-    <row r="594" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G593" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H593" t="str">
+        <f t="shared" si="31"/>
+        <v>ici_history.csv</v>
+      </c>
+    </row>
+    <row r="594" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A594" t="s">
         <v>6478</v>
       </c>
@@ -70610,8 +70627,15 @@
       <c r="F594" t="s">
         <v>7824</v>
       </c>
-    </row>
-    <row r="595" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G594" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H594" t="str">
+        <f t="shared" si="31"/>
+        <v>icln_history.csv</v>
+      </c>
+    </row>
+    <row r="595" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A595" t="s">
         <v>6479</v>
       </c>
@@ -70627,8 +70651,15 @@
       <c r="F595" t="s">
         <v>7825</v>
       </c>
-    </row>
-    <row r="596" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G595" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H595" t="str">
+        <f t="shared" si="31"/>
+        <v>icol_history.csv</v>
+      </c>
+    </row>
+    <row r="596" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A596" t="s">
         <v>6480</v>
       </c>
@@ -70644,8 +70675,15 @@
       <c r="F596" t="s">
         <v>7826</v>
       </c>
-    </row>
-    <row r="597" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G596" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H596" t="str">
+        <f t="shared" si="31"/>
+        <v>idhq_history.csv</v>
+      </c>
+    </row>
+    <row r="597" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A597" t="s">
         <v>6481</v>
       </c>
@@ -70661,8 +70699,15 @@
       <c r="F597" t="s">
         <v>7827</v>
       </c>
-    </row>
-    <row r="598" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G597" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H597" t="str">
+        <f t="shared" si="31"/>
+        <v>idlv_history.csv</v>
+      </c>
+    </row>
+    <row r="598" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A598" t="s">
         <v>6482</v>
       </c>
@@ -70678,8 +70723,15 @@
       <c r="F598" t="s">
         <v>7828</v>
       </c>
-    </row>
-    <row r="599" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G598" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H598" t="str">
+        <f t="shared" si="31"/>
+        <v>idog_history.csv</v>
+      </c>
+    </row>
+    <row r="599" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A599" t="s">
         <v>6483</v>
       </c>
@@ -70695,8 +70747,15 @@
       <c r="F599" t="s">
         <v>7829</v>
       </c>
-    </row>
-    <row r="600" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G599" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H599" t="str">
+        <f t="shared" si="31"/>
+        <v>idu_history.csv</v>
+      </c>
+    </row>
+    <row r="600" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A600" t="s">
         <v>6484</v>
       </c>
@@ -70712,8 +70771,15 @@
       <c r="F600" t="s">
         <v>7830</v>
       </c>
-    </row>
-    <row r="601" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G600" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H600" t="str">
+        <f t="shared" si="31"/>
+        <v>idv_history.csv</v>
+      </c>
+    </row>
+    <row r="601" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A601" t="s">
         <v>6485</v>
       </c>
@@ -70729,8 +70795,15 @@
       <c r="F601" t="s">
         <v>7831</v>
       </c>
-    </row>
-    <row r="602" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G601" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H601" t="str">
+        <f t="shared" si="31"/>
+        <v>idx_history.csv</v>
+      </c>
+    </row>
+    <row r="602" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A602" t="s">
         <v>6486</v>
       </c>
@@ -70746,8 +70819,15 @@
       <c r="F602" t="s">
         <v>7832</v>
       </c>
-    </row>
-    <row r="603" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G602" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H602" t="str">
+        <f t="shared" si="31"/>
+        <v>ief_history.csv</v>
+      </c>
+    </row>
+    <row r="603" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A603" t="s">
         <v>6487</v>
       </c>
@@ -70763,8 +70843,15 @@
       <c r="F603" t="s">
         <v>7833</v>
       </c>
-    </row>
-    <row r="604" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G603" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H603" t="str">
+        <f t="shared" si="31"/>
+        <v>iefa_history.csv</v>
+      </c>
+    </row>
+    <row r="604" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A604" t="s">
         <v>6488</v>
       </c>
@@ -70780,8 +70867,15 @@
       <c r="F604" t="s">
         <v>7834</v>
       </c>
-    </row>
-    <row r="605" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G604" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H604" t="str">
+        <f t="shared" si="31"/>
+        <v>iei_history.csv</v>
+      </c>
+    </row>
+    <row r="605" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A605" t="s">
         <v>6489</v>
       </c>
@@ -70797,8 +70891,15 @@
       <c r="F605" t="s">
         <v>7835</v>
       </c>
-    </row>
-    <row r="606" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G605" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H605" t="str">
+        <f t="shared" si="31"/>
+        <v>iemg_history.csv</v>
+      </c>
+    </row>
+    <row r="606" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A606" t="s">
         <v>6490</v>
       </c>
@@ -70814,8 +70915,15 @@
       <c r="F606" t="s">
         <v>7836</v>
       </c>
-    </row>
-    <row r="607" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G606" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H606" t="str">
+        <f t="shared" si="31"/>
+        <v>ieo_history.csv</v>
+      </c>
+    </row>
+    <row r="607" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A607" t="s">
         <v>6491</v>
       </c>
@@ -70831,8 +70939,15 @@
       <c r="F607" t="s">
         <v>7837</v>
       </c>
-    </row>
-    <row r="608" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G607" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H607" t="str">
+        <f t="shared" si="31"/>
+        <v>ieur_history.csv</v>
+      </c>
+    </row>
+    <row r="608" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A608" t="s">
         <v>6492</v>
       </c>
@@ -70848,8 +70963,15 @@
       <c r="F608" t="s">
         <v>7838</v>
       </c>
-    </row>
-    <row r="609" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G608" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H608" t="str">
+        <f t="shared" si="31"/>
+        <v>ieus_history.csv</v>
+      </c>
+    </row>
+    <row r="609" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A609" t="s">
         <v>6493</v>
       </c>
@@ -70865,8 +70987,15 @@
       <c r="F609" t="s">
         <v>7839</v>
       </c>
-    </row>
-    <row r="610" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G609" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H609" t="str">
+        <f t="shared" si="31"/>
+        <v>iev_history.csv</v>
+      </c>
+    </row>
+    <row r="610" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A610" t="s">
         <v>6494</v>
       </c>
@@ -70882,8 +71011,15 @@
       <c r="F610" t="s">
         <v>7840</v>
       </c>
-    </row>
-    <row r="611" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G610" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H610" t="str">
+        <f t="shared" si="31"/>
+        <v>iez_history.csv</v>
+      </c>
+    </row>
+    <row r="611" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A611" t="s">
         <v>6495</v>
       </c>
@@ -70899,8 +71035,15 @@
       <c r="F611" t="s">
         <v>7841</v>
       </c>
-    </row>
-    <row r="612" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G611" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H611" t="str">
+        <f t="shared" si="31"/>
+        <v>ifeu_history.csv</v>
+      </c>
+    </row>
+    <row r="612" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A612" t="s">
         <v>6496</v>
       </c>
@@ -70916,8 +71059,15 @@
       <c r="F612" t="s">
         <v>7842</v>
       </c>
-    </row>
-    <row r="613" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G612" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H612" t="str">
+        <f t="shared" si="31"/>
+        <v>ifgl_history.csv</v>
+      </c>
+    </row>
+    <row r="613" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A613" t="s">
         <v>6497</v>
       </c>
@@ -70933,8 +71083,15 @@
       <c r="F613" t="s">
         <v>7843</v>
       </c>
-    </row>
-    <row r="614" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G613" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H613" t="str">
+        <f t="shared" si="31"/>
+        <v>ifv_history.csv</v>
+      </c>
+    </row>
+    <row r="614" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A614" t="s">
         <v>6498</v>
       </c>
@@ -70950,8 +71107,15 @@
       <c r="F614" t="s">
         <v>7844</v>
       </c>
-    </row>
-    <row r="615" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G614" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H614" t="str">
+        <f t="shared" si="31"/>
+        <v>ige_history.csv</v>
+      </c>
+    </row>
+    <row r="615" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A615" t="s">
         <v>6499</v>
       </c>
@@ -70967,8 +71131,15 @@
       <c r="F615" t="s">
         <v>7845</v>
       </c>
-    </row>
-    <row r="616" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G615" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H615" t="str">
+        <f t="shared" si="31"/>
+        <v>igf_history.csv</v>
+      </c>
+    </row>
+    <row r="616" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A616" t="s">
         <v>6500</v>
       </c>
@@ -70984,8 +71155,15 @@
       <c r="F616" t="s">
         <v>7846</v>
       </c>
-    </row>
-    <row r="617" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G616" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H616" t="str">
+        <f t="shared" si="31"/>
+        <v>igih_history.csv</v>
+      </c>
+    </row>
+    <row r="617" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A617" t="s">
         <v>6501</v>
       </c>
@@ -71001,8 +71179,15 @@
       <c r="F617" t="s">
         <v>7847</v>
       </c>
-    </row>
-    <row r="618" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G617" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H617" t="str">
+        <f t="shared" si="31"/>
+        <v>igm_history.csv</v>
+      </c>
+    </row>
+    <row r="618" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A618" t="s">
         <v>6502</v>
       </c>
@@ -71018,8 +71203,15 @@
       <c r="F618" t="s">
         <v>7848</v>
       </c>
-    </row>
-    <row r="619" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G618" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H618" t="str">
+        <f t="shared" si="31"/>
+        <v>ign_history.csv</v>
+      </c>
+    </row>
+    <row r="619" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A619" t="s">
         <v>6503</v>
       </c>
@@ -71035,8 +71227,15 @@
       <c r="F619" t="s">
         <v>7849</v>
       </c>
-    </row>
-    <row r="620" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G619" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H619" t="str">
+        <f t="shared" si="31"/>
+        <v>igov_history.csv</v>
+      </c>
+    </row>
+    <row r="620" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A620" t="s">
         <v>6504</v>
       </c>
@@ -71052,8 +71251,15 @@
       <c r="F620" t="s">
         <v>7850</v>
       </c>
-    </row>
-    <row r="621" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G620" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H620" t="str">
+        <f t="shared" si="31"/>
+        <v>igv_history.csv</v>
+      </c>
+    </row>
+    <row r="621" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A621" t="s">
         <v>6505</v>
       </c>
@@ -71069,8 +71275,15 @@
       <c r="F621" t="s">
         <v>7851</v>
       </c>
-    </row>
-    <row r="622" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G621" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H621" t="str">
+        <f t="shared" si="31"/>
+        <v>ihdg_history.csv</v>
+      </c>
+    </row>
+    <row r="622" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A622" t="s">
         <v>6506</v>
       </c>
@@ -71086,8 +71299,15 @@
       <c r="F622" t="s">
         <v>7852</v>
       </c>
-    </row>
-    <row r="623" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G622" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H622" t="str">
+        <f t="shared" si="31"/>
+        <v>ihe_history.csv</v>
+      </c>
+    </row>
+    <row r="623" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A623" t="s">
         <v>6507</v>
       </c>
@@ -71103,8 +71323,15 @@
       <c r="F623" t="s">
         <v>7853</v>
       </c>
-    </row>
-    <row r="624" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G623" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H623" t="str">
+        <f t="shared" si="31"/>
+        <v>ihf_history.csv</v>
+      </c>
+    </row>
+    <row r="624" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A624" t="s">
         <v>6508</v>
       </c>
@@ -71120,8 +71347,15 @@
       <c r="F624" t="s">
         <v>7854</v>
       </c>
-    </row>
-    <row r="625" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G624" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H624" t="str">
+        <f t="shared" si="31"/>
+        <v>ihi_history.csv</v>
+      </c>
+    </row>
+    <row r="625" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A625" t="s">
         <v>6509</v>
       </c>
@@ -71137,8 +71371,15 @@
       <c r="F625" t="s">
         <v>7855</v>
       </c>
-    </row>
-    <row r="626" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G625" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H625" t="str">
+        <f t="shared" si="31"/>
+        <v>ihy_history.csv</v>
+      </c>
+    </row>
+    <row r="626" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A626" t="s">
         <v>6510</v>
       </c>
@@ -71154,8 +71395,15 @@
       <c r="F626" t="s">
         <v>7856</v>
       </c>
-    </row>
-    <row r="627" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G626" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H626" t="str">
+        <f t="shared" si="31"/>
+        <v>ijh_history.csv</v>
+      </c>
+    </row>
+    <row r="627" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A627" t="s">
         <v>6511</v>
       </c>
@@ -71171,8 +71419,15 @@
       <c r="F627" t="s">
         <v>7857</v>
       </c>
-    </row>
-    <row r="628" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G627" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H627" t="str">
+        <f t="shared" si="31"/>
+        <v>ijj_history.csv</v>
+      </c>
+    </row>
+    <row r="628" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A628" t="s">
         <v>6512</v>
       </c>
@@ -71188,8 +71443,15 @@
       <c r="F628" t="s">
         <v>7858</v>
       </c>
-    </row>
-    <row r="629" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G628" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H628" t="str">
+        <f t="shared" si="31"/>
+        <v>ijk_history.csv</v>
+      </c>
+    </row>
+    <row r="629" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A629" t="s">
         <v>6513</v>
       </c>
@@ -71205,8 +71467,15 @@
       <c r="F629" t="s">
         <v>7859</v>
       </c>
-    </row>
-    <row r="630" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G629" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H629" t="str">
+        <f t="shared" si="31"/>
+        <v>ijr_history.csv</v>
+      </c>
+    </row>
+    <row r="630" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A630" t="s">
         <v>6514</v>
       </c>
@@ -71222,8 +71491,15 @@
       <c r="F630" t="s">
         <v>7860</v>
       </c>
-    </row>
-    <row r="631" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G630" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H630" t="str">
+        <f t="shared" si="31"/>
+        <v>ijs_history.csv</v>
+      </c>
+    </row>
+    <row r="631" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A631" t="s">
         <v>6515</v>
       </c>
@@ -71239,8 +71515,15 @@
       <c r="F631" t="s">
         <v>7861</v>
       </c>
-    </row>
-    <row r="632" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G631" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H631" t="str">
+        <f t="shared" si="31"/>
+        <v>ijt_history.csv</v>
+      </c>
+    </row>
+    <row r="632" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A632" t="s">
         <v>6516</v>
       </c>
@@ -71256,8 +71539,15 @@
       <c r="F632" t="s">
         <v>7862</v>
       </c>
-    </row>
-    <row r="633" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G632" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H632" t="str">
+        <f t="shared" si="31"/>
+        <v>ilf_history.csv</v>
+      </c>
+    </row>
+    <row r="633" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A633" t="s">
         <v>6517</v>
       </c>
@@ -71273,8 +71563,15 @@
       <c r="F633" t="s">
         <v>7863</v>
       </c>
-    </row>
-    <row r="634" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G633" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H633" t="str">
+        <f t="shared" si="31"/>
+        <v>iltb_history.csv</v>
+      </c>
+    </row>
+    <row r="634" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A634" t="s">
         <v>6518</v>
       </c>
@@ -71290,8 +71587,15 @@
       <c r="F634" t="s">
         <v>7864</v>
       </c>
-    </row>
-    <row r="635" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G634" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H634" t="str">
+        <f t="shared" si="31"/>
+        <v>imlp_history.csv</v>
+      </c>
+    </row>
+    <row r="635" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A635" t="s">
         <v>6519</v>
       </c>
@@ -71307,8 +71611,15 @@
       <c r="F635" t="s">
         <v>7865</v>
       </c>
-    </row>
-    <row r="636" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G635" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H635" t="str">
+        <f t="shared" si="31"/>
+        <v>imtm_history.csv</v>
+      </c>
+    </row>
+    <row r="636" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A636" t="s">
         <v>6520</v>
       </c>
@@ -71324,8 +71635,15 @@
       <c r="F636" t="s">
         <v>7866</v>
       </c>
-    </row>
-    <row r="637" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G636" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H636" t="str">
+        <f t="shared" si="31"/>
+        <v>inco_history.csv</v>
+      </c>
+    </row>
+    <row r="637" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A637" t="s">
         <v>6521</v>
       </c>
@@ -71341,8 +71659,15 @@
       <c r="F637" t="s">
         <v>7867</v>
       </c>
-    </row>
-    <row r="638" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G637" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H637" t="str">
+        <f t="shared" si="31"/>
+        <v>inda_history.csv</v>
+      </c>
+    </row>
+    <row r="638" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A638" t="s">
         <v>6522</v>
       </c>
@@ -71358,8 +71683,15 @@
       <c r="F638" t="s">
         <v>7868</v>
       </c>
-    </row>
-    <row r="639" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G638" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H638" t="str">
+        <f t="shared" si="31"/>
+        <v>indl_history.csv</v>
+      </c>
+    </row>
+    <row r="639" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A639" t="s">
         <v>6523</v>
       </c>
@@ -71375,8 +71707,15 @@
       <c r="F639" t="s">
         <v>7869</v>
       </c>
-    </row>
-    <row r="640" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G639" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H639" t="str">
+        <f t="shared" si="31"/>
+        <v>indy_history.csv</v>
+      </c>
+    </row>
+    <row r="640" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A640" t="s">
         <v>6524</v>
       </c>
@@ -71389,11 +71728,18 @@
       <c r="D640" t="s">
         <v>7232</v>
       </c>
-      <c r="F640" t="s">
+      <c r="F640" s="2" t="s">
         <v>7870</v>
       </c>
-    </row>
-    <row r="641" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G640" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H640" s="2" t="str">
+        <f t="shared" si="31"/>
+        <v>inkm_history.csv</v>
+      </c>
+    </row>
+    <row r="641" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A641" t="s">
         <v>6525</v>
       </c>
@@ -71409,8 +71755,15 @@
       <c r="F641" t="s">
         <v>7871</v>
       </c>
-    </row>
-    <row r="642" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G641" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H641" t="str">
+        <f t="shared" si="31"/>
+        <v>inp_history.csv</v>
+      </c>
+    </row>
+    <row r="642" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A642" t="s">
         <v>6526</v>
       </c>
@@ -71426,8 +71779,15 @@
       <c r="F642" t="s">
         <v>7872</v>
       </c>
-    </row>
-    <row r="643" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G642" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H642" t="str">
+        <f t="shared" ref="H642:H669" si="32">_xlfn.CONCAT(F642,G642)</f>
+        <v>inr_history.csv</v>
+      </c>
+    </row>
+    <row r="643" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A643" t="s">
         <v>6527</v>
       </c>
@@ -71443,8 +71803,15 @@
       <c r="F643" t="s">
         <v>7873</v>
       </c>
-    </row>
-    <row r="644" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G643" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H643" t="str">
+        <f t="shared" si="32"/>
+        <v>intf_history.csv</v>
+      </c>
+    </row>
+    <row r="644" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A644" t="s">
         <v>6528</v>
       </c>
@@ -71460,8 +71827,15 @@
       <c r="F644" t="s">
         <v>7874</v>
       </c>
-    </row>
-    <row r="645" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G644" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H644" t="str">
+        <f t="shared" si="32"/>
+        <v>inxx_history.csv</v>
+      </c>
+    </row>
+    <row r="645" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A645" t="s">
         <v>6529</v>
       </c>
@@ -71477,8 +71851,15 @@
       <c r="F645" t="s">
         <v>7875</v>
       </c>
-    </row>
-    <row r="646" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G645" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H645" t="str">
+        <f t="shared" si="32"/>
+        <v>ioil_history.csv</v>
+      </c>
+    </row>
+    <row r="646" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A646" t="s">
         <v>6530</v>
       </c>
@@ -71494,8 +71875,15 @@
       <c r="F646" t="s">
         <v>7876</v>
       </c>
-    </row>
-    <row r="647" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G646" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H646" t="str">
+        <f t="shared" si="32"/>
+        <v>ioo_history.csv</v>
+      </c>
+    </row>
+    <row r="647" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A647" t="s">
         <v>6531</v>
       </c>
@@ -71511,8 +71899,15 @@
       <c r="F647" t="s">
         <v>7877</v>
       </c>
-    </row>
-    <row r="648" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G647" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H647" t="str">
+        <f t="shared" si="32"/>
+        <v>ipac_history.csv</v>
+      </c>
+    </row>
+    <row r="648" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A648" t="s">
         <v>6532</v>
       </c>
@@ -71528,8 +71923,15 @@
       <c r="F648" t="s">
         <v>7878</v>
       </c>
-    </row>
-    <row r="649" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G648" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H648" t="str">
+        <f t="shared" si="32"/>
+        <v>ipe_history.csv</v>
+      </c>
+    </row>
+    <row r="649" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A649" t="s">
         <v>6533</v>
       </c>
@@ -71545,8 +71947,15 @@
       <c r="F649" t="s">
         <v>7879</v>
       </c>
-    </row>
-    <row r="650" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G649" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H649" t="str">
+        <f t="shared" si="32"/>
+        <v>ipff_history.csv</v>
+      </c>
+    </row>
+    <row r="650" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A650" t="s">
         <v>6534</v>
       </c>
@@ -71562,8 +71971,15 @@
       <c r="F650" t="s">
         <v>7880</v>
       </c>
-    </row>
-    <row r="651" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G650" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H650" t="str">
+        <f t="shared" si="32"/>
+        <v>ipkw_history.csv</v>
+      </c>
+    </row>
+    <row r="651" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A651" t="s">
         <v>6535</v>
       </c>
@@ -71579,8 +71995,15 @@
       <c r="F651" t="s">
         <v>7881</v>
       </c>
-    </row>
-    <row r="652" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G651" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H651" t="str">
+        <f t="shared" si="32"/>
+        <v>ipo_history.csv</v>
+      </c>
+    </row>
+    <row r="652" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A652" t="s">
         <v>6536</v>
       </c>
@@ -71596,8 +72019,15 @@
       <c r="F652" t="s">
         <v>7882</v>
       </c>
-    </row>
-    <row r="653" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G652" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H652" t="str">
+        <f t="shared" si="32"/>
+        <v>iqde_history.csv</v>
+      </c>
+    </row>
+    <row r="653" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A653" t="s">
         <v>6537</v>
       </c>
@@ -71613,8 +72043,15 @@
       <c r="F653" t="s">
         <v>7883</v>
       </c>
-    </row>
-    <row r="654" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G653" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H653" t="str">
+        <f t="shared" si="32"/>
+        <v>iqdf_history.csv</v>
+      </c>
+    </row>
+    <row r="654" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A654" t="s">
         <v>6538</v>
       </c>
@@ -71630,8 +72067,15 @@
       <c r="F654" t="s">
         <v>7884</v>
       </c>
-    </row>
-    <row r="655" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G654" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H654" t="str">
+        <f t="shared" si="32"/>
+        <v>iqdy_history.csv</v>
+      </c>
+    </row>
+    <row r="655" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A655" t="s">
         <v>6539</v>
       </c>
@@ -71647,8 +72091,15 @@
       <c r="F655" t="s">
         <v>7885</v>
       </c>
-    </row>
-    <row r="656" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G655" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H655" t="str">
+        <f t="shared" si="32"/>
+        <v>iqlt_history.csv</v>
+      </c>
+    </row>
+    <row r="656" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A656" t="s">
         <v>6540</v>
       </c>
@@ -71664,8 +72115,15 @@
       <c r="F656" t="s">
         <v>7886</v>
       </c>
-    </row>
-    <row r="657" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G656" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H656" t="str">
+        <f t="shared" si="32"/>
+        <v>iscf_history.csv</v>
+      </c>
+    </row>
+    <row r="657" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A657" t="s">
         <v>6541</v>
       </c>
@@ -71681,8 +72139,15 @@
       <c r="F657" t="s">
         <v>7887</v>
       </c>
-    </row>
-    <row r="658" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G657" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H657" t="str">
+        <f t="shared" si="32"/>
+        <v>ishg_history.csv</v>
+      </c>
+    </row>
+    <row r="658" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A658" t="s">
         <v>6542</v>
       </c>
@@ -71698,8 +72163,15 @@
       <c r="F658" t="s">
         <v>7888</v>
       </c>
-    </row>
-    <row r="659" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G658" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H658" t="str">
+        <f t="shared" si="32"/>
+        <v>isra_history.csv</v>
+      </c>
+    </row>
+    <row r="659" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A659" t="s">
         <v>6543</v>
       </c>
@@ -71715,8 +72187,15 @@
       <c r="F659" t="s">
         <v>7889</v>
       </c>
-    </row>
-    <row r="660" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G659" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H659" t="str">
+        <f t="shared" si="32"/>
+        <v>istb_history.csv</v>
+      </c>
+    </row>
+    <row r="660" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A660" t="s">
         <v>6544</v>
       </c>
@@ -71732,8 +72211,15 @@
       <c r="F660" t="s">
         <v>7890</v>
       </c>
-    </row>
-    <row r="661" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G660" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H660" t="str">
+        <f t="shared" si="32"/>
+        <v>ita_history.csv</v>
+      </c>
+    </row>
+    <row r="661" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A661" t="s">
         <v>6545</v>
       </c>
@@ -71749,8 +72235,15 @@
       <c r="F661" t="s">
         <v>7891</v>
       </c>
-    </row>
-    <row r="662" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G661" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H661" t="str">
+        <f t="shared" si="32"/>
+        <v>itb_history.csv</v>
+      </c>
+    </row>
+    <row r="662" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A662" t="s">
         <v>6546</v>
       </c>
@@ -71766,8 +72259,15 @@
       <c r="F662" t="s">
         <v>7892</v>
       </c>
-    </row>
-    <row r="663" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G662" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H662" t="str">
+        <f t="shared" si="32"/>
+        <v>ite_history.csv</v>
+      </c>
+    </row>
+    <row r="663" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A663" t="s">
         <v>6547</v>
       </c>
@@ -71783,8 +72283,15 @@
       <c r="F663" t="s">
         <v>7893</v>
       </c>
-    </row>
-    <row r="664" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G663" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H663" t="str">
+        <f t="shared" si="32"/>
+        <v>itm_history.csv</v>
+      </c>
+    </row>
+    <row r="664" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A664" t="s">
         <v>6548</v>
       </c>
@@ -71800,8 +72307,15 @@
       <c r="F664" t="s">
         <v>7894</v>
       </c>
-    </row>
-    <row r="665" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G664" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H664" t="str">
+        <f t="shared" si="32"/>
+        <v>itot_history.csv</v>
+      </c>
+    </row>
+    <row r="665" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A665" t="s">
         <v>6549</v>
       </c>
@@ -71817,8 +72331,15 @@
       <c r="F665" t="s">
         <v>7895</v>
       </c>
-    </row>
-    <row r="666" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G665" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H665" t="str">
+        <f t="shared" si="32"/>
+        <v>iusb_history.csv</v>
+      </c>
+    </row>
+    <row r="666" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A666" t="s">
         <v>6550</v>
       </c>
@@ -71834,8 +72355,15 @@
       <c r="F666" t="s">
         <v>7896</v>
       </c>
-    </row>
-    <row r="667" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G666" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H666" t="str">
+        <f t="shared" si="32"/>
+        <v>iusg_history.csv</v>
+      </c>
+    </row>
+    <row r="667" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A667" t="s">
         <v>6551</v>
       </c>
@@ -71851,8 +72379,15 @@
       <c r="F667" t="s">
         <v>7897</v>
       </c>
-    </row>
-    <row r="668" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G667" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H667" t="str">
+        <f t="shared" si="32"/>
+        <v>iusv_history.csv</v>
+      </c>
+    </row>
+    <row r="668" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A668" t="s">
         <v>6552</v>
       </c>
@@ -71868,8 +72403,15 @@
       <c r="F668" t="s">
         <v>7898</v>
       </c>
-    </row>
-    <row r="669" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G668" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H668" t="str">
+        <f t="shared" si="32"/>
+        <v>ive_history.csv</v>
+      </c>
+    </row>
+    <row r="669" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A669" t="s">
         <v>6553</v>
       </c>
@@ -71885,8 +72427,15 @@
       <c r="F669" t="s">
         <v>7899</v>
       </c>
-    </row>
-    <row r="670" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G669" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H669" t="str">
+        <f t="shared" si="32"/>
+        <v>ivog_history.csv</v>
+      </c>
+    </row>
+    <row r="670" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A670" t="s">
         <v>6554</v>
       </c>
@@ -71902,8 +72451,15 @@
       <c r="F670" t="s">
         <v>7900</v>
       </c>
-    </row>
-    <row r="671" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G670" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H670" t="str">
+        <f t="shared" ref="H670:H693" si="33">_xlfn.CONCAT(F670,G670)</f>
+        <v>ivoo_history.csv</v>
+      </c>
+    </row>
+    <row r="671" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A671" t="s">
         <v>6555</v>
       </c>
@@ -71919,8 +72475,15 @@
       <c r="F671" t="s">
         <v>7901</v>
       </c>
-    </row>
-    <row r="672" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G671" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H671" t="str">
+        <f t="shared" si="33"/>
+        <v>ivov_history.csv</v>
+      </c>
+    </row>
+    <row r="672" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A672" t="s">
         <v>6556</v>
       </c>
@@ -71936,8 +72499,15 @@
       <c r="F672" t="s">
         <v>7902</v>
       </c>
-    </row>
-    <row r="673" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G672" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H672" t="str">
+        <f t="shared" si="33"/>
+        <v>ivv_history.csv</v>
+      </c>
+    </row>
+    <row r="673" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A673" t="s">
         <v>6557</v>
       </c>
@@ -71953,8 +72523,15 @@
       <c r="F673" t="s">
         <v>7903</v>
       </c>
-    </row>
-    <row r="674" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G673" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H673" t="str">
+        <f t="shared" si="33"/>
+        <v>ivw_history.csv</v>
+      </c>
+    </row>
+    <row r="674" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A674" t="s">
         <v>6558</v>
       </c>
@@ -71970,8 +72547,15 @@
       <c r="F674" t="s">
         <v>7904</v>
       </c>
-    </row>
-    <row r="675" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G674" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H674" t="str">
+        <f t="shared" si="33"/>
+        <v>iwb_history.csv</v>
+      </c>
+    </row>
+    <row r="675" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A675" t="s">
         <v>6559</v>
       </c>
@@ -71987,8 +72571,15 @@
       <c r="F675" t="s">
         <v>7905</v>
       </c>
-    </row>
-    <row r="676" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G675" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H675" t="str">
+        <f t="shared" si="33"/>
+        <v>iwc_history.csv</v>
+      </c>
+    </row>
+    <row r="676" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A676" t="s">
         <v>6560</v>
       </c>
@@ -72004,8 +72595,15 @@
       <c r="F676" t="s">
         <v>7906</v>
       </c>
-    </row>
-    <row r="677" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G676" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H676" t="str">
+        <f t="shared" si="33"/>
+        <v>iwd_history.csv</v>
+      </c>
+    </row>
+    <row r="677" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A677" t="s">
         <v>6561</v>
       </c>
@@ -72021,8 +72619,15 @@
       <c r="F677" t="s">
         <v>7907</v>
       </c>
-    </row>
-    <row r="678" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G677" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H677" t="str">
+        <f t="shared" si="33"/>
+        <v>iwf_history.csv</v>
+      </c>
+    </row>
+    <row r="678" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A678" t="s">
         <v>6562</v>
       </c>
@@ -72038,8 +72643,15 @@
       <c r="F678" t="s">
         <v>7908</v>
       </c>
-    </row>
-    <row r="679" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G678" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H678" t="str">
+        <f t="shared" si="33"/>
+        <v>iwl_history.csv</v>
+      </c>
+    </row>
+    <row r="679" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A679" t="s">
         <v>6563</v>
       </c>
@@ -72055,8 +72667,15 @@
       <c r="F679" t="s">
         <v>7909</v>
       </c>
-    </row>
-    <row r="680" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G679" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H679" t="str">
+        <f t="shared" si="33"/>
+        <v>iwm_history.csv</v>
+      </c>
+    </row>
+    <row r="680" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A680" t="s">
         <v>6564</v>
       </c>
@@ -72072,8 +72691,15 @@
       <c r="F680" t="s">
         <v>7910</v>
       </c>
-    </row>
-    <row r="681" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G680" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H680" t="str">
+        <f t="shared" si="33"/>
+        <v>iwn_history.csv</v>
+      </c>
+    </row>
+    <row r="681" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A681" t="s">
         <v>6565</v>
       </c>
@@ -72089,8 +72715,15 @@
       <c r="F681" t="s">
         <v>7911</v>
       </c>
-    </row>
-    <row r="682" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G681" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H681" t="str">
+        <f t="shared" si="33"/>
+        <v>iwo_history.csv</v>
+      </c>
+    </row>
+    <row r="682" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A682" t="s">
         <v>6566</v>
       </c>
@@ -72106,8 +72739,15 @@
       <c r="F682" t="s">
         <v>7912</v>
       </c>
-    </row>
-    <row r="683" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G682" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H682" t="str">
+        <f t="shared" si="33"/>
+        <v>iwp_history.csv</v>
+      </c>
+    </row>
+    <row r="683" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A683" t="s">
         <v>6567</v>
       </c>
@@ -72123,8 +72763,15 @@
       <c r="F683" t="s">
         <v>7913</v>
       </c>
-    </row>
-    <row r="684" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G683" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H683" t="str">
+        <f t="shared" si="33"/>
+        <v>iwr_history.csv</v>
+      </c>
+    </row>
+    <row r="684" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A684" t="s">
         <v>6568</v>
       </c>
@@ -72140,8 +72787,15 @@
       <c r="F684" t="s">
         <v>7914</v>
       </c>
-    </row>
-    <row r="685" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G684" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H684" t="str">
+        <f t="shared" si="33"/>
+        <v>iws_history.csv</v>
+      </c>
+    </row>
+    <row r="685" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A685" t="s">
         <v>6569</v>
       </c>
@@ -72157,8 +72811,15 @@
       <c r="F685" t="s">
         <v>7915</v>
       </c>
-    </row>
-    <row r="686" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G685" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H685" t="str">
+        <f t="shared" si="33"/>
+        <v>iwv_history.csv</v>
+      </c>
+    </row>
+    <row r="686" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A686" t="s">
         <v>6570</v>
       </c>
@@ -72174,8 +72835,15 @@
       <c r="F686" t="s">
         <v>7916</v>
       </c>
-    </row>
-    <row r="687" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G686" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H686" t="str">
+        <f t="shared" si="33"/>
+        <v>iwx_history.csv</v>
+      </c>
+    </row>
+    <row r="687" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A687" t="s">
         <v>6571</v>
       </c>
@@ -72191,8 +72859,15 @@
       <c r="F687" t="s">
         <v>7917</v>
       </c>
-    </row>
-    <row r="688" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G687" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H687" t="str">
+        <f t="shared" si="33"/>
+        <v>iwy_history.csv</v>
+      </c>
+    </row>
+    <row r="688" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A688" t="s">
         <v>6572</v>
       </c>
@@ -72208,8 +72883,15 @@
       <c r="F688" t="s">
         <v>7918</v>
       </c>
-    </row>
-    <row r="689" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G688" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H688" t="str">
+        <f t="shared" si="33"/>
+        <v>ixc_history.csv</v>
+      </c>
+    </row>
+    <row r="689" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A689" t="s">
         <v>6573</v>
       </c>
@@ -72225,8 +72907,15 @@
       <c r="F689" t="s">
         <v>7919</v>
       </c>
-    </row>
-    <row r="690" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G689" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H689" t="str">
+        <f t="shared" si="33"/>
+        <v>ixg_history.csv</v>
+      </c>
+    </row>
+    <row r="690" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A690" t="s">
         <v>6574</v>
       </c>
@@ -72239,11 +72928,18 @@
       <c r="D690" t="s">
         <v>7232</v>
       </c>
-      <c r="F690" t="s">
+      <c r="F690" s="2" t="s">
         <v>7920</v>
       </c>
-    </row>
-    <row r="691" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G690" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H690" s="2" t="str">
+        <f t="shared" si="33"/>
+        <v>ixj_history.csv</v>
+      </c>
+    </row>
+    <row r="691" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A691" t="s">
         <v>6575</v>
       </c>
@@ -72259,8 +72955,15 @@
       <c r="F691" t="s">
         <v>7921</v>
       </c>
-    </row>
-    <row r="692" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G691" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H691" t="str">
+        <f t="shared" si="33"/>
+        <v>ixn_history.csv</v>
+      </c>
+    </row>
+    <row r="692" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A692" t="s">
         <v>6576</v>
       </c>
@@ -72277,7 +72980,7 @@
         <v>7922</v>
       </c>
     </row>
-    <row r="693" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
         <v>6577</v>
       </c>
@@ -72294,7 +72997,7 @@
         <v>7923</v>
       </c>
     </row>
-    <row r="694" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
         <v>6578</v>
       </c>
@@ -72311,7 +73014,7 @@
         <v>7924</v>
       </c>
     </row>
-    <row r="695" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
         <v>6579</v>
       </c>
@@ -72328,7 +73031,7 @@
         <v>7925</v>
       </c>
     </row>
-    <row r="696" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
         <v>6580</v>
       </c>
@@ -72345,7 +73048,7 @@
         <v>7926</v>
       </c>
     </row>
-    <row r="697" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
         <v>6581</v>
       </c>
@@ -72362,7 +73065,7 @@
         <v>7927</v>
       </c>
     </row>
-    <row r="698" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
         <v>6582</v>
       </c>
@@ -72379,7 +73082,7 @@
         <v>7928</v>
       </c>
     </row>
-    <row r="699" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
         <v>6583</v>
       </c>
@@ -72396,7 +73099,7 @@
         <v>7929</v>
       </c>
     </row>
-    <row r="700" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
         <v>6584</v>
       </c>
@@ -72413,7 +73116,7 @@
         <v>7930</v>
       </c>
     </row>
-    <row r="701" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
         <v>6585</v>
       </c>
@@ -72430,7 +73133,7 @@
         <v>7931</v>
       </c>
     </row>
-    <row r="702" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
         <v>6586</v>
       </c>
@@ -72447,7 +73150,7 @@
         <v>7932</v>
       </c>
     </row>
-    <row r="703" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
         <v>6587</v>
       </c>
@@ -72464,7 +73167,7 @@
         <v>7933</v>
       </c>
     </row>
-    <row r="704" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
         <v>6588</v>
       </c>

--- a/tickers.xlsx
+++ b/tickers.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ttbon\Desktop\stocks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E973E839-6828-4268-9FC5-5F1663719E36}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B780C31B-BE64-4E2C-A7CC-17FF3CFF0ABD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13215" yWindow="555" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="24225" yWindow="2025" windowWidth="16080" windowHeight="11385" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tickers" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13356" uniqueCount="8598">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13407" uniqueCount="8598">
   <si>
     <t>tickers</t>
   </si>
@@ -56404,8 +56404,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA55E37D-5D70-4D70-8000-B4CA16A6A6A0}">
   <dimension ref="A1:H1345"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A622" workbookViewId="0">
-      <selection activeCell="F690" sqref="F690:H690"/>
+    <sheetView tabSelected="1" topLeftCell="A726" workbookViewId="0">
+      <selection activeCell="H691" sqref="H691:H740"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -71728,6 +71728,9 @@
       <c r="D640" t="s">
         <v>7232</v>
       </c>
+      <c r="E640" t="s">
+        <v>8597</v>
+      </c>
       <c r="F640" s="2" t="s">
         <v>7870</v>
       </c>
@@ -72455,7 +72458,7 @@
         <v>5885</v>
       </c>
       <c r="H670" t="str">
-        <f t="shared" ref="H670:H693" si="33">_xlfn.CONCAT(F670,G670)</f>
+        <f t="shared" ref="H670:H691" si="33">_xlfn.CONCAT(F670,G670)</f>
         <v>ivoo_history.csv</v>
       </c>
     </row>
@@ -72979,6 +72982,13 @@
       <c r="F692" t="s">
         <v>7922</v>
       </c>
+      <c r="G692" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H692" t="str">
+        <f t="shared" ref="H692:H718" si="34">_xlfn.CONCAT(F692,G692)</f>
+        <v>ixp_history.csv</v>
+      </c>
     </row>
     <row r="693" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A693" t="s">
@@ -72996,6 +73006,13 @@
       <c r="F693" t="s">
         <v>7923</v>
       </c>
+      <c r="G693" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H693" t="str">
+        <f t="shared" si="34"/>
+        <v>ixus_history.csv</v>
+      </c>
     </row>
     <row r="694" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A694" t="s">
@@ -73013,6 +73030,13 @@
       <c r="F694" t="s">
         <v>7924</v>
       </c>
+      <c r="G694" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H694" t="str">
+        <f t="shared" si="34"/>
+        <v>iyc_history.csv</v>
+      </c>
     </row>
     <row r="695" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A695" t="s">
@@ -73030,6 +73054,13 @@
       <c r="F695" t="s">
         <v>7925</v>
       </c>
+      <c r="G695" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H695" t="str">
+        <f t="shared" si="34"/>
+        <v>iye_history.csv</v>
+      </c>
     </row>
     <row r="696" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A696" t="s">
@@ -73047,6 +73078,13 @@
       <c r="F696" t="s">
         <v>7926</v>
       </c>
+      <c r="G696" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H696" t="str">
+        <f t="shared" si="34"/>
+        <v>iyf_history.csv</v>
+      </c>
     </row>
     <row r="697" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A697" t="s">
@@ -73064,6 +73102,13 @@
       <c r="F697" t="s">
         <v>7927</v>
       </c>
+      <c r="G697" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H697" t="str">
+        <f t="shared" si="34"/>
+        <v>iyg_history.csv</v>
+      </c>
     </row>
     <row r="698" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A698" t="s">
@@ -73081,6 +73126,13 @@
       <c r="F698" t="s">
         <v>7928</v>
       </c>
+      <c r="G698" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H698" t="str">
+        <f t="shared" si="34"/>
+        <v>iyh_history.csv</v>
+      </c>
     </row>
     <row r="699" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A699" t="s">
@@ -73098,6 +73150,13 @@
       <c r="F699" t="s">
         <v>7929</v>
       </c>
+      <c r="G699" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H699" t="str">
+        <f t="shared" si="34"/>
+        <v>iyj_history.csv</v>
+      </c>
     </row>
     <row r="700" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A700" t="s">
@@ -73115,6 +73174,13 @@
       <c r="F700" t="s">
         <v>7930</v>
       </c>
+      <c r="G700" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H700" t="str">
+        <f t="shared" si="34"/>
+        <v>iyk_history.csv</v>
+      </c>
     </row>
     <row r="701" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A701" t="s">
@@ -73132,6 +73198,13 @@
       <c r="F701" t="s">
         <v>7931</v>
       </c>
+      <c r="G701" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H701" t="str">
+        <f t="shared" si="34"/>
+        <v>iym_history.csv</v>
+      </c>
     </row>
     <row r="702" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A702" t="s">
@@ -73149,6 +73222,13 @@
       <c r="F702" t="s">
         <v>7932</v>
       </c>
+      <c r="G702" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H702" t="str">
+        <f t="shared" si="34"/>
+        <v>iyr_history.csv</v>
+      </c>
     </row>
     <row r="703" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A703" t="s">
@@ -73166,6 +73246,13 @@
       <c r="F703" t="s">
         <v>7933</v>
       </c>
+      <c r="G703" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H703" t="str">
+        <f t="shared" si="34"/>
+        <v>iyt_history.csv</v>
+      </c>
     </row>
     <row r="704" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A704" t="s">
@@ -73183,8 +73270,15 @@
       <c r="F704" t="s">
         <v>7934</v>
       </c>
-    </row>
-    <row r="705" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G704" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H704" t="str">
+        <f t="shared" si="34"/>
+        <v>iyw_history.csv</v>
+      </c>
+    </row>
+    <row r="705" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A705" t="s">
         <v>6589</v>
       </c>
@@ -73200,8 +73294,15 @@
       <c r="F705" t="s">
         <v>7935</v>
       </c>
-    </row>
-    <row r="706" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G705" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H705" t="str">
+        <f t="shared" si="34"/>
+        <v>iyy_history.csv</v>
+      </c>
+    </row>
+    <row r="706" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A706" t="s">
         <v>6590</v>
       </c>
@@ -73217,8 +73318,15 @@
       <c r="F706" t="s">
         <v>7936</v>
       </c>
-    </row>
-    <row r="707" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G706" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H706" t="str">
+        <f t="shared" si="34"/>
+        <v>iyz_history.csv</v>
+      </c>
+    </row>
+    <row r="707" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A707" t="s">
         <v>6591</v>
       </c>
@@ -73234,8 +73342,15 @@
       <c r="F707" t="s">
         <v>7937</v>
       </c>
-    </row>
-    <row r="708" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G707" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H707" t="str">
+        <f t="shared" si="34"/>
+        <v>jdst_history.csv</v>
+      </c>
+    </row>
+    <row r="708" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A708" t="s">
         <v>6592</v>
       </c>
@@ -73251,8 +73366,15 @@
       <c r="F708" t="s">
         <v>7938</v>
       </c>
-    </row>
-    <row r="709" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G708" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H708" t="str">
+        <f t="shared" si="34"/>
+        <v>jhdg_history.csv</v>
+      </c>
+    </row>
+    <row r="709" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A709" t="s">
         <v>6593</v>
       </c>
@@ -73268,8 +73390,15 @@
       <c r="F709" t="s">
         <v>7939</v>
       </c>
-    </row>
-    <row r="710" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G709" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H709" t="str">
+        <f t="shared" si="34"/>
+        <v>jja_history.csv</v>
+      </c>
+    </row>
+    <row r="710" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A710" t="s">
         <v>6594</v>
       </c>
@@ -73285,8 +73414,15 @@
       <c r="F710" t="s">
         <v>7940</v>
       </c>
-    </row>
-    <row r="711" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G710" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H710" t="str">
+        <f t="shared" si="34"/>
+        <v>jjc_history.csv</v>
+      </c>
+    </row>
+    <row r="711" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A711" t="s">
         <v>6595</v>
       </c>
@@ -73302,8 +73438,15 @@
       <c r="F711" t="s">
         <v>7941</v>
       </c>
-    </row>
-    <row r="712" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G711" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H711" t="str">
+        <f t="shared" si="34"/>
+        <v>jje_history.csv</v>
+      </c>
+    </row>
+    <row r="712" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A712" t="s">
         <v>6596</v>
       </c>
@@ -73319,8 +73462,15 @@
       <c r="F712" t="s">
         <v>7942</v>
       </c>
-    </row>
-    <row r="713" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G712" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H712" t="str">
+        <f t="shared" si="34"/>
+        <v>jjg_history.csv</v>
+      </c>
+    </row>
+    <row r="713" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A713" t="s">
         <v>6597</v>
       </c>
@@ -73336,8 +73486,15 @@
       <c r="F713" t="s">
         <v>7943</v>
       </c>
-    </row>
-    <row r="714" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G713" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H713" t="str">
+        <f t="shared" si="34"/>
+        <v>jjm_history.csv</v>
+      </c>
+    </row>
+    <row r="714" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A714" t="s">
         <v>6598</v>
       </c>
@@ -73353,8 +73510,15 @@
       <c r="F714" t="s">
         <v>7944</v>
       </c>
-    </row>
-    <row r="715" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G714" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H714" t="str">
+        <f t="shared" si="34"/>
+        <v>jjn_history.csv</v>
+      </c>
+    </row>
+    <row r="715" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A715" t="s">
         <v>6599</v>
       </c>
@@ -73370,8 +73534,15 @@
       <c r="F715" t="s">
         <v>7945</v>
       </c>
-    </row>
-    <row r="716" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G715" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H715" t="str">
+        <f t="shared" si="34"/>
+        <v>jjp_history.csv</v>
+      </c>
+    </row>
+    <row r="716" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A716" t="s">
         <v>6600</v>
       </c>
@@ -73387,8 +73558,15 @@
       <c r="F716" t="s">
         <v>7946</v>
       </c>
-    </row>
-    <row r="717" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G716" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H716" t="str">
+        <f t="shared" si="34"/>
+        <v>jjs_history.csv</v>
+      </c>
+    </row>
+    <row r="717" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A717" t="s">
         <v>6601</v>
       </c>
@@ -73404,8 +73582,15 @@
       <c r="F717" t="s">
         <v>7947</v>
       </c>
-    </row>
-    <row r="718" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G717" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H717" t="str">
+        <f t="shared" si="34"/>
+        <v>jjt_history.csv</v>
+      </c>
+    </row>
+    <row r="718" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A718" t="s">
         <v>6602</v>
       </c>
@@ -73421,8 +73606,15 @@
       <c r="F718" t="s">
         <v>7948</v>
       </c>
-    </row>
-    <row r="719" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G718" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H718" t="str">
+        <f t="shared" si="34"/>
+        <v>jju_history.csv</v>
+      </c>
+    </row>
+    <row r="719" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A719" t="s">
         <v>6603</v>
       </c>
@@ -73438,8 +73630,15 @@
       <c r="F719" t="s">
         <v>7949</v>
       </c>
-    </row>
-    <row r="720" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G719" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H719" t="str">
+        <f t="shared" ref="H719:H743" si="35">_xlfn.CONCAT(F719,G719)</f>
+        <v>jkd_history.csv</v>
+      </c>
+    </row>
+    <row r="720" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A720" t="s">
         <v>6604</v>
       </c>
@@ -73455,8 +73654,15 @@
       <c r="F720" t="s">
         <v>7950</v>
       </c>
-    </row>
-    <row r="721" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G720" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H720" t="str">
+        <f t="shared" si="35"/>
+        <v>jke_history.csv</v>
+      </c>
+    </row>
+    <row r="721" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A721" t="s">
         <v>6605</v>
       </c>
@@ -73472,8 +73678,15 @@
       <c r="F721" t="s">
         <v>7951</v>
       </c>
-    </row>
-    <row r="722" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G721" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H721" t="str">
+        <f t="shared" si="35"/>
+        <v>jkf_history.csv</v>
+      </c>
+    </row>
+    <row r="722" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A722" t="s">
         <v>6606</v>
       </c>
@@ -73489,8 +73702,15 @@
       <c r="F722" t="s">
         <v>7952</v>
       </c>
-    </row>
-    <row r="723" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G722" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H722" t="str">
+        <f t="shared" si="35"/>
+        <v>jkg_history.csv</v>
+      </c>
+    </row>
+    <row r="723" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A723" t="s">
         <v>6607</v>
       </c>
@@ -73506,8 +73726,15 @@
       <c r="F723" t="s">
         <v>7953</v>
       </c>
-    </row>
-    <row r="724" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G723" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H723" t="str">
+        <f t="shared" si="35"/>
+        <v>jkh_history.csv</v>
+      </c>
+    </row>
+    <row r="724" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A724" t="s">
         <v>6608</v>
       </c>
@@ -73523,8 +73750,15 @@
       <c r="F724" t="s">
         <v>7954</v>
       </c>
-    </row>
-    <row r="725" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G724" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H724" t="str">
+        <f t="shared" si="35"/>
+        <v>jki_history.csv</v>
+      </c>
+    </row>
+    <row r="725" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A725" t="s">
         <v>6609</v>
       </c>
@@ -73540,8 +73774,15 @@
       <c r="F725" t="s">
         <v>7955</v>
       </c>
-    </row>
-    <row r="726" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G725" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H725" t="str">
+        <f t="shared" si="35"/>
+        <v>jkj_history.csv</v>
+      </c>
+    </row>
+    <row r="726" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A726" t="s">
         <v>6610</v>
       </c>
@@ -73557,8 +73798,15 @@
       <c r="F726" t="s">
         <v>7956</v>
       </c>
-    </row>
-    <row r="727" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G726" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H726" t="str">
+        <f t="shared" si="35"/>
+        <v>jkk_history.csv</v>
+      </c>
+    </row>
+    <row r="727" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A727" t="s">
         <v>6611</v>
       </c>
@@ -73574,8 +73822,15 @@
       <c r="F727" t="s">
         <v>7957</v>
       </c>
-    </row>
-    <row r="728" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G727" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H727" t="str">
+        <f t="shared" si="35"/>
+        <v>jkl_history.csv</v>
+      </c>
+    </row>
+    <row r="728" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A728" t="s">
         <v>6612</v>
       </c>
@@ -73591,8 +73846,15 @@
       <c r="F728" t="s">
         <v>7958</v>
       </c>
-    </row>
-    <row r="729" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G728" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H728" t="str">
+        <f t="shared" si="35"/>
+        <v>jnk_history.csv</v>
+      </c>
+    </row>
+    <row r="729" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A729" t="s">
         <v>6613</v>
       </c>
@@ -73608,8 +73870,15 @@
       <c r="F729" t="s">
         <v>7959</v>
       </c>
-    </row>
-    <row r="730" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G729" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H729" t="str">
+        <f t="shared" si="35"/>
+        <v>jnug_history.csv</v>
+      </c>
+    </row>
+    <row r="730" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A730" t="s">
         <v>6614</v>
       </c>
@@ -73625,8 +73894,15 @@
       <c r="F730" t="s">
         <v>7960</v>
       </c>
-    </row>
-    <row r="731" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G730" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H730" t="str">
+        <f t="shared" si="35"/>
+        <v>jo_history.csv</v>
+      </c>
+    </row>
+    <row r="731" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A731" t="s">
         <v>6615</v>
       </c>
@@ -73642,8 +73918,15 @@
       <c r="F731" t="s">
         <v>7961</v>
       </c>
-    </row>
-    <row r="732" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G731" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H731" t="str">
+        <f t="shared" si="35"/>
+        <v>jpge_history.csv</v>
+      </c>
+    </row>
+    <row r="732" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A732" t="s">
         <v>6616</v>
       </c>
@@ -73659,8 +73942,15 @@
       <c r="F732" t="s">
         <v>7962</v>
       </c>
-    </row>
-    <row r="733" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G732" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H732" t="str">
+        <f t="shared" si="35"/>
+        <v>jpmv_history.csv</v>
+      </c>
+    </row>
+    <row r="733" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A733" t="s">
         <v>6617</v>
       </c>
@@ -73676,8 +73966,15 @@
       <c r="F733" t="s">
         <v>7963</v>
       </c>
-    </row>
-    <row r="734" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G733" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H733" t="str">
+        <f t="shared" si="35"/>
+        <v>jpnl_history.csv</v>
+      </c>
+    </row>
+    <row r="734" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A734" t="s">
         <v>6618</v>
       </c>
@@ -73693,8 +73990,15 @@
       <c r="F734" t="s">
         <v>7964</v>
       </c>
-    </row>
-    <row r="735" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G734" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H734" t="str">
+        <f t="shared" si="35"/>
+        <v>jxi_history.csv</v>
+      </c>
+    </row>
+    <row r="735" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A735" t="s">
         <v>6619</v>
       </c>
@@ -73710,8 +74014,15 @@
       <c r="F735" t="s">
         <v>7965</v>
       </c>
-    </row>
-    <row r="736" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G735" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H735" t="str">
+        <f t="shared" si="35"/>
+        <v>kba_history.csv</v>
+      </c>
+    </row>
+    <row r="736" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A736" t="s">
         <v>6620</v>
       </c>
@@ -73727,8 +74038,15 @@
       <c r="F736" t="s">
         <v>7966</v>
       </c>
-    </row>
-    <row r="737" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G736" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H736" t="str">
+        <f t="shared" si="35"/>
+        <v>kbe_history.csv</v>
+      </c>
+    </row>
+    <row r="737" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A737" t="s">
         <v>6621</v>
       </c>
@@ -73744,8 +74062,15 @@
       <c r="F737" t="s">
         <v>7967</v>
       </c>
-    </row>
-    <row r="738" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G737" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H737" t="str">
+        <f t="shared" si="35"/>
+        <v>kbwp_history.csv</v>
+      </c>
+    </row>
+    <row r="738" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A738" t="s">
         <v>6622</v>
       </c>
@@ -73761,8 +74086,15 @@
       <c r="F738" t="s">
         <v>7968</v>
       </c>
-    </row>
-    <row r="739" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G738" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H738" t="str">
+        <f t="shared" si="35"/>
+        <v>kbwr_history.csv</v>
+      </c>
+    </row>
+    <row r="739" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A739" t="s">
         <v>6623</v>
       </c>
@@ -73778,8 +74110,15 @@
       <c r="F739" t="s">
         <v>7969</v>
       </c>
-    </row>
-    <row r="740" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G739" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H739" t="str">
+        <f t="shared" si="35"/>
+        <v>kce_history.csv</v>
+      </c>
+    </row>
+    <row r="740" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A740" t="s">
         <v>6624</v>
       </c>
@@ -73792,11 +74131,18 @@
       <c r="D740" t="s">
         <v>7232</v>
       </c>
-      <c r="F740" t="s">
+      <c r="F740" s="2" t="s">
         <v>7970</v>
       </c>
-    </row>
-    <row r="741" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G740" s="2" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H740" s="2" t="str">
+        <f t="shared" si="35"/>
+        <v>kfyp_history.csv</v>
+      </c>
+    </row>
+    <row r="741" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A741" t="s">
         <v>6625</v>
       </c>
@@ -73812,8 +74158,15 @@
       <c r="F741" t="s">
         <v>7971</v>
       </c>
-    </row>
-    <row r="742" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G741" t="s">
+        <v>5885</v>
+      </c>
+      <c r="H741" t="str">
+        <f t="shared" si="35"/>
+        <v>kie_history.csv</v>
+      </c>
+    </row>
+    <row r="742" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A742" t="s">
         <v>6626</v>
       </c>
@@ -73830,7 +74183,7 @@
         <v>7972</v>
       </c>
     </row>
-    <row r="743" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="743" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A743" t="s">
         <v>6627</v>
       </c>
@@ -73847,7 +74200,7 @@
         <v>7973</v>
       </c>
     </row>
-    <row r="744" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="744" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A744" t="s">
         <v>6628</v>
       </c>
@@ -73864,7 +74217,7 @@
         <v>7974</v>
       </c>
     </row>
-    <row r="745" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="745" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A745" t="s">
         <v>6629</v>
       </c>
@@ -73881,7 +74234,7 @@
         <v>7975</v>
       </c>
     </row>
-    <row r="746" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="746" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A746" t="s">
         <v>6630</v>
       </c>
@@ -73898,7 +74251,7 @@
         <v>7976</v>
       </c>
     </row>
-    <row r="747" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="747" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A747" t="s">
         <v>6631</v>
       </c>
@@ -73915,7 +74268,7 @@
         <v>7977</v>
       </c>
     </row>
-    <row r="748" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="748" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A748" t="s">
         <v>6632</v>
       </c>
@@ -73932,7 +74285,7 @@
         <v>7978</v>
       </c>
     </row>
-    <row r="749" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="749" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A749" t="s">
         <v>6633</v>
       </c>
@@ -73949,7 +74302,7 @@
         <v>7979</v>
       </c>
     </row>
-    <row r="750" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="750" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A750" t="s">
         <v>6634</v>
       </c>
@@ -73966,7 +74319,7 @@
         <v>7980</v>
       </c>
     </row>
-    <row r="751" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="751" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A751" t="s">
         <v>6635</v>
       </c>
@@ -73983,7 +74336,7 @@
         <v>7981</v>
       </c>
     </row>
-    <row r="752" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="752" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A752" t="s">
         <v>6636</v>
       </c>
